--- a/assets/GPT-lite-DeepSpeed/benchmark.xlsx
+++ b/assets/GPT-lite-DeepSpeed/benchmark.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t-bmagalhaes\Desktop\brunomaga.github.io\assets\GPT-lite-DeepSpeed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D66C3EE7-0238-4F9F-B46D-A9798F798B4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{927150F8-FF67-4F03-841F-6D824324D173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{5CE2D5A5-40E8-479C-B7CB-2387D3474101}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="benchmark" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Single GPU</t>
   </si>
@@ -56,13 +56,7 @@
     <t>DP stage 3 amp</t>
   </si>
   <si>
-    <t>DP stage 3 offloaded</t>
-  </si>
-  <si>
     <t>Running Avg Samples Per Sec</t>
-  </si>
-  <si>
-    <t>Curr Samples Per Sec</t>
   </si>
   <si>
     <t>Mem Allocated</t>
@@ -76,13 +70,24 @@
   <si>
     <t>GPU memory</t>
   </si>
+  <si>
+    <t>DP stage 3 offloading</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -110,8 +115,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -127,6 +133,1817 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" b="1"/>
+              <a:t>GPT-lite</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" b="1" baseline="0"/>
+              <a:t> D</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" b="1"/>
+              <a:t>eepSpeed benchmark</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>benchmark!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Single GPU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>benchmark!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Running Avg Samples Per Sec</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mem Allocated</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MaxMemAllocated</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>GPU utilization</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>GPU memory</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>benchmark!$B$2:$F$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-579D-4AAE-B31C-2AB50D9483F9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>benchmark!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Data Parallel</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>benchmark!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Running Avg Samples Per Sec</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mem Allocated</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MaxMemAllocated</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>GPU utilization</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>GPU memory</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>benchmark!$B$3:$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-579D-4AAE-B31C-2AB50D9483F9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>benchmark!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DP stage 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>benchmark!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Running Avg Samples Per Sec</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mem Allocated</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MaxMemAllocated</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>GPU utilization</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>GPU memory</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>benchmark!$B$4:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-579D-4AAE-B31C-2AB50D9483F9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>benchmark!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DP stage 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>benchmark!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Running Avg Samples Per Sec</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mem Allocated</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MaxMemAllocated</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>GPU utilization</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>GPU memory</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>benchmark!$B$5:$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-579D-4AAE-B31C-2AB50D9483F9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>benchmark!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DP stage 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>benchmark!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Running Avg Samples Per Sec</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mem Allocated</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MaxMemAllocated</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>GPU utilization</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>GPU memory</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>benchmark!$B$6:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-579D-4AAE-B31C-2AB50D9483F9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>benchmark!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DP stage 3 amp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>benchmark!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Running Avg Samples Per Sec</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mem Allocated</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MaxMemAllocated</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>GPU utilization</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>GPU memory</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>benchmark!$B$7:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-579D-4AAE-B31C-2AB50D9483F9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>benchmark!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DP stage 3 offloading</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>benchmark!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Running Avg Samples Per Sec</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mem Allocated</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MaxMemAllocated</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>GPU utilization</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>GPU memory</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>benchmark!$B$8:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-579D-4AAE-B31C-2AB50D9483F9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1227906863"/>
+        <c:axId val="121734031"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1227906863"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="121734031"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="121734031"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1227906863"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>41274</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25D8227B-84FC-B86B-D9C4-BB171DBD0F89}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -446,245 +2263,219 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BBAB1DA-DD82-4512-8D36-0FA776F72118}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:H7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.36328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>7</v>
       </c>
       <c r="B2">
         <f ca="1">RANDBETWEEN(1,10)</f>
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ref="C2:F8" ca="1" si="0">RANDBETWEEN(1,10)</f>
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B8" ca="1" si="1">RANDBETWEEN(1,10)</f>
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="C2">
-        <f t="shared" ref="C2:H5" ca="1" si="0">RANDBETWEEN(1,10)</f>
-        <v>10</v>
-      </c>
-      <c r="D2">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="E2">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="F2">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="G2">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="H2">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3">
-        <f t="shared" ref="B3:H7" ca="1" si="1">RANDBETWEEN(1,10)</f>
-        <v>8</v>
-      </c>
-      <c r="C3">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="D3">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="E3">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F3">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="G3">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="H3">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>9</v>
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ca="1" si="0"/>
         <v>4</v>
       </c>
-      <c r="C4">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="D4">
+      <c r="E4">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F4">
         <f t="shared" ca="1" si="0"/>
         <v>7</v>
       </c>
-      <c r="E4">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="F4">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="G4">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="H4">
-        <f t="shared" ca="1" si="0"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>10</v>
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ca="1" si="0"/>
         <v>9</v>
       </c>
-      <c r="C5">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <f t="shared" ca="1" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
         <f t="shared" ca="1" si="1"/>
         <v>10</v>
       </c>
-      <c r="D5">
+      <c r="C7">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="F7">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
         <f t="shared" ca="1" si="1"/>
         <v>10</v>
       </c>
-      <c r="E5">
-        <f t="shared" ca="1" si="1"/>
+      <c r="C8">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
-      <c r="F5">
-        <f t="shared" ca="1" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="G5">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="H5">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="C6">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="G6">
-        <f t="shared" ca="1" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="H6">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7">
-        <f t="shared" ca="1" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="C7">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="D7">
-        <f t="shared" ca="1" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="E7">
-        <f t="shared" ca="1" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="F7">
-        <f t="shared" ca="1" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="G7">
-        <f t="shared" ca="1" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="H7">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+      <c r="E8">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="F8">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/assets/GPT-lite-DeepSpeed/benchmark.xlsx
+++ b/assets/GPT-lite-DeepSpeed/benchmark.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t-bmagalhaes\Desktop\brunomaga.github.io\assets\GPT-lite-DeepSpeed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{927150F8-FF67-4F03-841F-6D824324D173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{324E2C25-5682-462F-AB4E-C01D5A5CABE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{5CE2D5A5-40E8-479C-B7CB-2387D3474101}"/>
+    <workbookView xWindow="-16320" yWindow="-22185" windowWidth="16440" windowHeight="29040" xr2:uid="{5CE2D5A5-40E8-479C-B7CB-2387D3474101}"/>
   </bookViews>
   <sheets>
     <sheet name="benchmark" sheetId="1" r:id="rId1"/>
@@ -62,16 +62,16 @@
     <t>Mem Allocated</t>
   </si>
   <si>
-    <t>MaxMemAllocated</t>
-  </si>
-  <si>
     <t>GPU utilization</t>
   </si>
   <si>
-    <t>GPU memory</t>
+    <t>DP stage 3 offloading</t>
   </si>
   <si>
-    <t>DP stage 3 offloading</t>
+    <t>Max Mem Allocated</t>
+  </si>
+  <si>
+    <t>GPU memory GB</t>
   </si>
 </sst>
 </file>
@@ -312,13 +312,13 @@
                   <c:v>Mem Allocated</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>MaxMemAllocated</c:v>
+                  <c:v>Max Mem Allocated</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>GPU utilization</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>GPU memory</c:v>
+                  <c:v>GPU memory GB</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -330,19 +330,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>8.9275000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>0.47</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>6.07</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>7</c:v>
+                  <c:v>6.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -446,13 +446,13 @@
                   <c:v>Mem Allocated</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>MaxMemAllocated</c:v>
+                  <c:v>Max Mem Allocated</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>GPU utilization</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>GPU memory</c:v>
+                  <c:v>GPU memory GB</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -464,19 +464,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -580,13 +580,13 @@
                   <c:v>Mem Allocated</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>MaxMemAllocated</c:v>
+                  <c:v>Max Mem Allocated</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>GPU utilization</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>GPU memory</c:v>
+                  <c:v>GPU memory GB</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -598,16 +598,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>7</c:v>
@@ -714,13 +714,13 @@
                   <c:v>Mem Allocated</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>MaxMemAllocated</c:v>
+                  <c:v>Max Mem Allocated</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>GPU utilization</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>GPU memory</c:v>
+                  <c:v>GPU memory GB</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -735,16 +735,16 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -848,13 +848,13 @@
                   <c:v>Mem Allocated</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>MaxMemAllocated</c:v>
+                  <c:v>Max Mem Allocated</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>GPU utilization</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>GPU memory</c:v>
+                  <c:v>GPU memory GB</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -869,16 +869,16 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -982,13 +982,13 @@
                   <c:v>Mem Allocated</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>MaxMemAllocated</c:v>
+                  <c:v>Max Mem Allocated</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>GPU utilization</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>GPU memory</c:v>
+                  <c:v>GPU memory GB</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1000,19 +1000,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1118,13 +1118,13 @@
                   <c:v>Mem Allocated</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>MaxMemAllocated</c:v>
+                  <c:v>Max Mem Allocated</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>GPU utilization</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>GPU memory</c:v>
+                  <c:v>GPU memory GB</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1136,19 +1136,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2266,17 +2266,17 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.08984375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2288,13 +2288,13 @@
         <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -2302,24 +2302,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <f ca="1">RANDBETWEEN(1,10)</f>
-        <v>7</v>
+        <v>8.9275000000000002</v>
       </c>
       <c r="C2">
-        <f t="shared" ref="C2:F8" ca="1" si="0">RANDBETWEEN(1,10)</f>
-        <v>7</v>
+        <v>0.47</v>
       </c>
       <c r="D2">
-        <f t="shared" ca="1" si="0"/>
+        <v>6.07</v>
+      </c>
+      <c r="E2">
         <v>1</v>
       </c>
-      <c r="E2">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
       <c r="F2">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -2327,24 +2322,24 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B8" ca="1" si="1">RANDBETWEEN(1,10)</f>
+        <f t="shared" ref="B3:B8" ca="1" si="0">RANDBETWEEN(1,10)</f>
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C2:F8" ca="1" si="1">RANDBETWEEN(1,10)</f>
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ca="1" si="1"/>
         <v>7</v>
       </c>
-      <c r="C3">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="D3">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
       <c r="E3">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
       </c>
       <c r="F3">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -2352,23 +2347,23 @@
         <v>2</v>
       </c>
       <c r="B4">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C4">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
       </c>
       <c r="E4">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
       </c>
       <c r="F4">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>7</v>
       </c>
     </row>
@@ -2377,24 +2372,24 @@
         <v>3</v>
       </c>
       <c r="B5">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C5">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="C5">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D5">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
       </c>
       <c r="E5">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
       </c>
       <c r="F5">
-        <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -2402,24 +2397,24 @@
         <v>4</v>
       </c>
       <c r="B6">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="D6">
         <f t="shared" ca="1" si="1"/>
         <v>9</v>
       </c>
-      <c r="C6">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="D6">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
-      </c>
       <c r="E6">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
       </c>
       <c r="F6">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -2427,49 +2422,49 @@
         <v>5</v>
       </c>
       <c r="B7">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C7">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="C7">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D7">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
       </c>
       <c r="E7">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
       </c>
       <c r="F7">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <f t="shared" ca="1" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="C8">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="D8">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E8">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="F8">
         <f t="shared" ca="1" si="0"/>
         <v>3</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <f t="shared" ca="1" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="F8">
+        <f t="shared" ca="1" si="1"/>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/assets/GPT-lite-DeepSpeed/benchmark.xlsx
+++ b/assets/GPT-lite-DeepSpeed/benchmark.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t-bmagalhaes\Desktop\brunomaga.github.io\assets\GPT-lite-DeepSpeed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{324E2C25-5682-462F-AB4E-C01D5A5CABE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BFB5057-712D-4DCE-A898-8D2AD8B2865A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-16320" yWindow="-22185" windowWidth="16440" windowHeight="29040" xr2:uid="{5CE2D5A5-40E8-479C-B7CB-2387D3474101}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Single GPU</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>GPU memory GB</t>
+  </si>
+  <si>
+    <t>Max block count</t>
   </si>
 </sst>
 </file>
@@ -464,19 +467,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -598,19 +601,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>6</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -732,19 +735,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -866,19 +869,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>9</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1003,16 +1006,16 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1142,13 +1145,13 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>9</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>9</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2263,10 +2266,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BBAB1DA-DD82-4512-8D36-0FA776F72118}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="H5" activeCellId="1" sqref="I4 H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2280,7 +2283,7 @@
     <col min="7" max="7" width="17.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
@@ -2296,8 +2299,11 @@
       <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2317,107 +2323,107 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B8" ca="1" si="0">RANDBETWEEN(1,10)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C2:F8" ca="1" si="1">RANDBETWEEN(1,10)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -2427,22 +2433,22 @@
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -2456,15 +2462,15 @@
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/assets/GPT-lite-DeepSpeed/benchmark.xlsx
+++ b/assets/GPT-lite-DeepSpeed/benchmark.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t-bmagalhaes\Desktop\brunomaga.github.io\assets\GPT-lite-DeepSpeed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BFB5057-712D-4DCE-A898-8D2AD8B2865A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB61ABC-6544-4E9D-861A-276E7EDC6A0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-22185" windowWidth="16440" windowHeight="29040" xr2:uid="{5CE2D5A5-40E8-479C-B7CB-2387D3474101}"/>
+    <workbookView xWindow="-80" yWindow="-80" windowWidth="22720" windowHeight="14480" xr2:uid="{5CE2D5A5-40E8-479C-B7CB-2387D3474101}"/>
   </bookViews>
   <sheets>
     <sheet name="benchmark" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -74,7 +75,7 @@
     <t>GPU memory GB</t>
   </si>
   <si>
-    <t>Max block count</t>
+    <t>Model size</t>
   </si>
 </sst>
 </file>
@@ -152,70 +153,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB" b="1"/>
-              <a:t>GPT-lite</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-GB" b="1" baseline="0"/>
-              <a:t> D</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-GB" b="1"/>
-              <a:t>eepSpeed benchmark</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -305,47 +243,23 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>benchmark!$B$1:$F$1</c:f>
+              <c:f>benchmark!$B$1</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>Running Avg Samples Per Sec</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Mem Allocated</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Max Mem Allocated</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>GPU utilization</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>GPU memory GB</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>benchmark!$B$2:$F$2</c:f>
+              <c:f>benchmark!$B$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>8.9275000000000002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.47</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.07</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.8</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -439,47 +353,23 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>benchmark!$B$1:$F$1</c:f>
+              <c:f>benchmark!$B$1</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>Running Avg Samples Per Sec</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Mem Allocated</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Max Mem Allocated</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>GPU utilization</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>GPU memory GB</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>benchmark!$B$3:$F$3</c:f>
+              <c:f>benchmark!$B$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -573,47 +463,23 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>benchmark!$B$1:$F$1</c:f>
+              <c:f>benchmark!$B$1</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>Running Avg Samples Per Sec</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Mem Allocated</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Max Mem Allocated</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>GPU utilization</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>GPU memory GB</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>benchmark!$B$4:$F$4</c:f>
+              <c:f>benchmark!$B$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -707,47 +573,23 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>benchmark!$B$1:$F$1</c:f>
+              <c:f>benchmark!$B$1</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>Running Avg Samples Per Sec</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Mem Allocated</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Max Mem Allocated</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>GPU utilization</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>GPU memory GB</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>benchmark!$B$5:$F$5</c:f>
+              <c:f>benchmark!$B$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -841,47 +683,23 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>benchmark!$B$1:$F$1</c:f>
+              <c:f>benchmark!$B$1</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>Running Avg Samples Per Sec</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Mem Allocated</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Max Mem Allocated</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>GPU utilization</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>GPU memory GB</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>benchmark!$B$6:$F$6</c:f>
+              <c:f>benchmark!$B$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -975,47 +793,23 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>benchmark!$B$1:$F$1</c:f>
+              <c:f>benchmark!$B$1</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>Running Avg Samples Per Sec</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Mem Allocated</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Max Mem Allocated</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>GPU utilization</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>GPU memory GB</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>benchmark!$B$7:$F$7</c:f>
+              <c:f>benchmark!$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1111,47 +905,23 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>benchmark!$B$1:$F$1</c:f>
+              <c:f>benchmark!$B$1</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>Running Avg Samples Per Sec</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Mem Allocated</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Max Mem Allocated</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>GPU utilization</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>GPU memory GB</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>benchmark!$B$8:$F$8</c:f>
+              <c:f>benchmark!$B$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1159,6 +929,4986 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-579D-4AAE-B31C-2AB50D9483F9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1227906863"/>
+        <c:axId val="121734031"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1227906863"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="121734031"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="121734031"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1227906863"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>benchmark!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Single GPU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>benchmark!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mem Allocated</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>benchmark!$B$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C3E5-4913-8F59-D0739BB4A169}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>benchmark!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Data Parallel</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>benchmark!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mem Allocated</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>benchmark!$B$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C3E5-4913-8F59-D0739BB4A169}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>benchmark!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DP stage 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>benchmark!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mem Allocated</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>benchmark!$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C3E5-4913-8F59-D0739BB4A169}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>benchmark!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DP stage 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>benchmark!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mem Allocated</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>benchmark!$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C3E5-4913-8F59-D0739BB4A169}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>benchmark!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DP stage 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>benchmark!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mem Allocated</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>benchmark!$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-C3E5-4913-8F59-D0739BB4A169}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>benchmark!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DP stage 3 amp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>benchmark!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mem Allocated</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>benchmark!$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-C3E5-4913-8F59-D0739BB4A169}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>benchmark!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DP stage 3 offloading</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>benchmark!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mem Allocated</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>benchmark!$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-C3E5-4913-8F59-D0739BB4A169}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1227906863"/>
+        <c:axId val="121734031"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1227906863"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="121734031"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="121734031"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1227906863"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>benchmark!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Single GPU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>benchmark!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Max Mem Allocated</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>benchmark!$B$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-537D-48E9-A747-5984ADDA5BF5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>benchmark!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Data Parallel</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>benchmark!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Max Mem Allocated</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>benchmark!$B$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-537D-48E9-A747-5984ADDA5BF5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>benchmark!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DP stage 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>benchmark!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Max Mem Allocated</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>benchmark!$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-537D-48E9-A747-5984ADDA5BF5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>benchmark!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DP stage 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>benchmark!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Max Mem Allocated</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>benchmark!$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-537D-48E9-A747-5984ADDA5BF5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>benchmark!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DP stage 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>benchmark!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Max Mem Allocated</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>benchmark!$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-537D-48E9-A747-5984ADDA5BF5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>benchmark!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DP stage 3 amp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>benchmark!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Max Mem Allocated</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>benchmark!$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-537D-48E9-A747-5984ADDA5BF5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>benchmark!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DP stage 3 offloading</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>benchmark!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Max Mem Allocated</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>benchmark!$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-537D-48E9-A747-5984ADDA5BF5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1227906863"/>
+        <c:axId val="121734031"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1227906863"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="121734031"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="121734031"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1227906863"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>benchmark!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Single GPU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>benchmark!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GPU utilization</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>benchmark!$B$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A854-44DC-B023-563245B87DDD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>benchmark!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Data Parallel</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>benchmark!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GPU utilization</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>benchmark!$B$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A854-44DC-B023-563245B87DDD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>benchmark!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DP stage 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>benchmark!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GPU utilization</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>benchmark!$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A854-44DC-B023-563245B87DDD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>benchmark!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DP stage 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>benchmark!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GPU utilization</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>benchmark!$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A854-44DC-B023-563245B87DDD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>benchmark!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DP stage 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>benchmark!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GPU utilization</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>benchmark!$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-A854-44DC-B023-563245B87DDD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>benchmark!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DP stage 3 amp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>benchmark!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GPU utilization</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>benchmark!$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-A854-44DC-B023-563245B87DDD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>benchmark!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DP stage 3 offloading</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>benchmark!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GPU utilization</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>benchmark!$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-A854-44DC-B023-563245B87DDD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1227906863"/>
+        <c:axId val="121734031"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1227906863"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="121734031"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="121734031"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1227906863"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>benchmark!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Single GPU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>benchmark!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GPU memory GB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>benchmark!$B$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DEE4-466B-836F-C6EA209D1345}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>benchmark!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Data Parallel</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>benchmark!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GPU memory GB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>benchmark!$B$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DEE4-466B-836F-C6EA209D1345}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>benchmark!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DP stage 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>benchmark!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GPU memory GB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>benchmark!$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-DEE4-466B-836F-C6EA209D1345}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>benchmark!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DP stage 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>benchmark!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GPU memory GB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>benchmark!$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-DEE4-466B-836F-C6EA209D1345}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>benchmark!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DP stage 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>benchmark!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GPU memory GB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>benchmark!$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-DEE4-466B-836F-C6EA209D1345}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>benchmark!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DP stage 3 amp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>benchmark!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GPU memory GB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>benchmark!$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-DEE4-466B-836F-C6EA209D1345}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>benchmark!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DP stage 3 offloading</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>benchmark!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GPU memory GB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>benchmark!$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-DEE4-466B-836F-C6EA209D1345}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1227906863"/>
+        <c:axId val="121734031"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1227906863"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="121734031"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="121734031"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1227906863"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>benchmark!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Single GPU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>benchmark!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Model size</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>benchmark!$B$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-276D-443E-AAAD-630BCB78C7BA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>benchmark!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Data Parallel</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>benchmark!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Model size</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>benchmark!$B$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-276D-443E-AAAD-630BCB78C7BA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>benchmark!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DP stage 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>benchmark!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Model size</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>benchmark!$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-276D-443E-AAAD-630BCB78C7BA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>benchmark!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DP stage 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>benchmark!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Model size</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>benchmark!$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-276D-443E-AAAD-630BCB78C7BA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>benchmark!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DP stage 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>benchmark!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Model size</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>benchmark!$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-276D-443E-AAAD-630BCB78C7BA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>benchmark!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DP stage 3 amp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>benchmark!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Model size</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>benchmark!$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-276D-443E-AAAD-630BCB78C7BA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>benchmark!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DP stage 3 offloading</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>benchmark!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Model size</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>benchmark!$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-276D-443E-AAAD-630BCB78C7BA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1405,7 +6155,2722 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1913,13 +9378,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>41274</xdr:colOff>
+      <xdr:colOff>41275</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
+      <xdr:rowOff>92074</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>120650</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1911350</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>38099</xdr:rowOff>
     </xdr:to>
@@ -1941,6 +9406,196 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2006600</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17E15891-0225-4961-BDBF-DF9FAEC81B8A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>136525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3948E6CB-DEA6-410B-B2E1-136B0381BB36}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1879600</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>136525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0424961F-DF2C-4D28-BB3C-CD676D9377AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>168275</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECD99C9F-4A63-4564-B3CA-1BAE22EF9EA5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>339725</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EABDC470-708C-48B9-AD9C-36B8F48615A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2269,21 +9924,21 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H5" activeCellId="1" sqref="I4 H5"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.08984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
@@ -2303,52 +9958,64 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>8.9275000000000002</v>
+        <f ca="1">RANDBETWEEN(1,10)</f>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>0.47</v>
+        <f ca="1">RANDBETWEEN(1,10)</f>
+        <v>5</v>
       </c>
       <c r="D2">
-        <v>6.07</v>
+        <f ca="1">RANDBETWEEN(1,10)</f>
+        <v>9</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>6.8</v>
+        <f ca="1">RANDBETWEEN(1,10)</f>
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <f ca="1">RANDBETWEEN(1,10)</f>
+        <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B8" ca="1" si="0">RANDBETWEEN(1,10)</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C2:F8" ca="1" si="1">RANDBETWEEN(1,10)</f>
-        <v>9</v>
+        <f t="shared" ref="C3:G8" ca="1" si="1">RANDBETWEEN(1,10)</f>
+        <v>6</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F3">
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="G3">
         <f t="shared" ca="1" si="1"/>
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -2358,28 +10025,32 @@
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="1"/>
@@ -2391,86 +10062,102 @@
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="G6">
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/assets/GPT-lite-DeepSpeed/benchmark.xlsx
+++ b/assets/GPT-lite-DeepSpeed/benchmark.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t-bmagalhaes\Desktop\brunomaga.github.io\assets\GPT-lite-DeepSpeed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3321A85-5C95-48DB-AEC1-6C7C84E43935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11EF7097-D94B-45D8-848C-AE5B1FEFA2A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{5CE2D5A5-40E8-479C-B7CB-2387D3474101}"/>
   </bookViews>
@@ -254,18 +254,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -382,18 +370,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1893,7 +1869,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="B5" sqref="B5:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1978,42 +1954,10 @@
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
-        <f t="shared" ref="B4:B6" ca="1" si="0">RANDBETWEEN(1,10)</f>
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <f t="shared" ref="C2:G6" ca="1" si="1">RANDBETWEEN(1,10)</f>
-        <v>3</v>
-      </c>
-      <c r="D5">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="E5">
-        <f t="shared" ca="1" si="1"/>
-        <v>5</v>
-      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B6">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C6">
-        <f t="shared" ca="1" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="D6">
-        <f t="shared" ca="1" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="E6">
-        <f t="shared" ca="1" si="1"/>
-        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/assets/GPT-lite-DeepSpeed/benchmark.xlsx
+++ b/assets/GPT-lite-DeepSpeed/benchmark.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t-bmagalhaes\Desktop\brunomaga.github.io\assets\GPT-lite-DeepSpeed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11EF7097-D94B-45D8-848C-AE5B1FEFA2A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC39667-8994-45F7-AA4D-FB0E788A21F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{5CE2D5A5-40E8-479C-B7CB-2387D3474101}"/>
+    <workbookView xWindow="-16140" yWindow="-21240" windowWidth="16410" windowHeight="14760" firstSheet="1" activeTab="2" xr2:uid="{5CE2D5A5-40E8-479C-B7CB-2387D3474101}"/>
   </bookViews>
   <sheets>
-    <sheet name="benchmark" sheetId="1" r:id="rId1"/>
+    <sheet name="GPTlite" sheetId="1" r:id="rId1"/>
+    <sheet name="Benchmark Wide" sheetId="2" r:id="rId2"/>
+    <sheet name="Benchmark Deep" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
   <si>
     <t>Single GPU</t>
   </si>
@@ -47,22 +49,43 @@
     <t>Max Mem Allocated (GB)</t>
   </si>
   <si>
-    <t>DeepSpeed ZeRO3</t>
-  </si>
-  <si>
     <t>DeepSpeedZeRO-Infinity</t>
   </si>
   <si>
     <t>DeepSpeed ZerRO1 Pipeline</t>
   </si>
   <si>
-    <t>Input Size per GPU</t>
-  </si>
-  <si>
     <t>Distributed Data Parallel</t>
   </si>
   <si>
     <t>Throughput (samples/sec)</t>
+  </si>
+  <si>
+    <t>DeepSpeed ZeRO-3</t>
+  </si>
+  <si>
+    <t>DeepSpeed ZeRO-1</t>
+  </si>
+  <si>
+    <t>DeepSpeed ZeRO-2</t>
+  </si>
+  <si>
+    <t>Avg Mem Allocated (GB)</t>
+  </si>
+  <si>
+    <t>DeepSpeed ZeRO-1 Pipeline</t>
+  </si>
+  <si>
+    <t>DeepSpeed ZeRO-Infinity</t>
+  </si>
+  <si>
+    <t>W=8192, L=3</t>
+  </si>
+  <si>
+    <t>W=256, L=1024</t>
+  </si>
+  <si>
+    <t>Throughput (10K samples/sec)</t>
   </si>
 </sst>
 </file>
@@ -152,7 +175,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>benchmark!$A$6</c:f>
+              <c:f>GPTlite!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -230,9 +253,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>benchmark!$B$1:$E$1</c:f>
+              <c:f>GPTlite!$B$1:$D$1</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>Throughput (samples/sec)</c:v>
                 </c:pt>
@@ -241,19 +264,16 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Max Mem Allocated (GB)</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Input Size per GPU</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>benchmark!$B$6:$E$6</c:f>
+              <c:f>GPTlite!$B$6:$D$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -268,7 +288,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>benchmark!$A$5</c:f>
+              <c:f>GPTlite!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -346,9 +366,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>benchmark!$B$1:$E$1</c:f>
+              <c:f>GPTlite!$B$1:$D$1</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>Throughput (samples/sec)</c:v>
                 </c:pt>
@@ -357,19 +377,16 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Max Mem Allocated (GB)</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Input Size per GPU</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>benchmark!$B$5:$E$5</c:f>
+              <c:f>GPTlite!$B$5:$D$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -384,11 +401,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>benchmark!$A$4</c:f>
+              <c:f>GPTlite!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>DeepSpeed ZeRO3</c:v>
+                  <c:v>DeepSpeed ZeRO-3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -462,9 +479,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>benchmark!$B$1:$E$1</c:f>
+              <c:f>GPTlite!$B$1:$D$1</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>Throughput (samples/sec)</c:v>
                 </c:pt>
@@ -473,19 +490,16 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Max Mem Allocated (GB)</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Input Size per GPU</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>benchmark!$B$4:$E$4</c:f>
+              <c:f>GPTlite!$B$4:$D$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>10.71</c:v>
                 </c:pt>
@@ -494,9 +508,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>9.6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -512,7 +523,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>benchmark!$A$3</c:f>
+              <c:f>GPTlite!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -590,9 +601,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>benchmark!$B$1:$E$1</c:f>
+              <c:f>GPTlite!$B$1:$D$1</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>Throughput (samples/sec)</c:v>
                 </c:pt>
@@ -601,19 +612,16 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Max Mem Allocated (GB)</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Input Size per GPU</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>benchmark!$B$3:$E$3</c:f>
+              <c:f>GPTlite!$B$3:$D$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>12.57</c:v>
                 </c:pt>
@@ -622,9 +630,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>9.4499999999999993</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -640,7 +645,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>benchmark!$A$2</c:f>
+              <c:f>GPTlite!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -718,9 +723,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>benchmark!$B$1:$E$1</c:f>
+              <c:f>GPTlite!$B$1:$D$1</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>Throughput (samples/sec)</c:v>
                 </c:pt>
@@ -729,19 +734,16 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Max Mem Allocated (GB)</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Input Size per GPU</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>benchmark!$B$2:$E$2</c:f>
+              <c:f>GPTlite!$B$2:$D$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1.63</c:v>
                 </c:pt>
@@ -750,9 +752,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>9.4499999999999993</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -963,7 +962,1864 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Wide benchmark model (W=8192, L=3)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Benchmark Wide'!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DeepSpeed ZeRO-1 Pipeline</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Benchmark Wide'!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Throughput (10K samples/sec)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Avg Mem Allocated (GB)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Max Mem Allocated (GB)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Benchmark Wide'!$B$7:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6783-47FD-8B50-B30016C9542F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Benchmark Wide'!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DeepSpeed ZeRO-Infinity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Benchmark Wide'!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Throughput (10K samples/sec)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Avg Mem Allocated (GB)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Max Mem Allocated (GB)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Benchmark Wide'!$B$6:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.1639999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.41</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6783-47FD-8B50-B30016C9542F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Benchmark Wide'!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DeepSpeed ZeRO-3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Benchmark Wide'!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Throughput (10K samples/sec)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Avg Mem Allocated (GB)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Max Mem Allocated (GB)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Benchmark Wide'!$B$5:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.6319999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0699999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6783-47FD-8B50-B30016C9542F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Benchmark Wide'!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DeepSpeed ZeRO-2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Benchmark Wide'!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Throughput (10K samples/sec)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Avg Mem Allocated (GB)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Max Mem Allocated (GB)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Benchmark Wide'!$B$4:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.76100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.88</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-6783-47FD-8B50-B30016C9542F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Benchmark Wide'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DeepSpeed ZeRO-1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Benchmark Wide'!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Throughput (10K samples/sec)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Avg Mem Allocated (GB)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Max Mem Allocated (GB)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Benchmark Wide'!$B$3:$D$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.71099999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0099999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-6783-47FD-8B50-B30016C9542F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Benchmark Wide'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Distributed Data Parallel</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Benchmark Wide'!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Throughput (10K samples/sec)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Avg Mem Allocated (GB)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Max Mem Allocated (GB)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Benchmark Wide'!$B$2:$D$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.5489999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.39</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.77</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-6783-47FD-8B50-B30016C9542F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="388047104"/>
+        <c:axId val="345613824"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="388047104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="345613824"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="345613824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="388047104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.7117083394528379E-2"/>
+          <c:y val="0.93405171288902489"/>
+          <c:w val="0.67591730808929784"/>
+          <c:h val="6.5948484848484853E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Deep benchmark</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> model (W=256, L=1024)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Benchmark Deep'!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DeepSpeed ZeRO-1 Pipeline</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Benchmark Deep'!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Throughput (10K samples/sec)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Avg Mem Allocated (GB)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Max Mem Allocated (GB)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Benchmark Deep'!$B$7:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-7CEA-4C2F-B755-15A8E344247C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Benchmark Deep'!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DeepSpeed ZeRO-Infinity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Benchmark Deep'!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Throughput (10K samples/sec)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Avg Mem Allocated (GB)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Max Mem Allocated (GB)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Benchmark Deep'!$B$6:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.20399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.53</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-7CEA-4C2F-B755-15A8E344247C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Benchmark Deep'!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DeepSpeed ZeRO-3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Benchmark Deep'!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Throughput (10K samples/sec)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Avg Mem Allocated (GB)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Max Mem Allocated (GB)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Benchmark Deep'!$B$5:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.253</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.84</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-7CEA-4C2F-B755-15A8E344247C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Benchmark Deep'!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DeepSpeed ZeRO-2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Benchmark Deep'!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Throughput (10K samples/sec)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Avg Mem Allocated (GB)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Max Mem Allocated (GB)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Benchmark Deep'!$B$4:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4.9800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7CEA-4C2F-B755-15A8E344247C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Benchmark Deep'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DeepSpeed ZeRO-1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Benchmark Deep'!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Throughput (10K samples/sec)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Avg Mem Allocated (GB)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Max Mem Allocated (GB)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Benchmark Deep'!$B$3:$D$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.60099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7CEA-4C2F-B755-15A8E344247C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Benchmark Deep'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Distributed Data Parallel</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Benchmark Deep'!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Throughput (10K samples/sec)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Avg Mem Allocated (GB)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Max Mem Allocated (GB)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Benchmark Deep'!$B$2:$D$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.7270000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.53</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.53</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7CEA-4C2F-B755-15A8E344247C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="388047104"/>
+        <c:axId val="345613824"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="388047104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="345613824"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="345613824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="388047104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.7117083394528379E-2"/>
+          <c:y val="0.93405171288902489"/>
+          <c:w val="0.67591730808929784"/>
+          <c:h val="6.5948484848484853E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1508,6 +3364,1016 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1518,10 +4384,10 @@
       <xdr:rowOff>66674</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>647701</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1670050</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1533,6 +4399,92 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1657350</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>111900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23ED2034-8ECF-4FEA-939F-F9F7EBD14FBD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>234950</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1682750</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>35700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C4881FF-AFAB-450D-8D23-168D761F6E8E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1866,10 +4818,108 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BBAB1DA-DD82-4512-8D36-0FA776F72118}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:E6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="24.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.1796875" customWidth="1"/>
+    <col min="6" max="6" width="24.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1.63</v>
+      </c>
+      <c r="C2">
+        <v>2.27</v>
+      </c>
+      <c r="D2">
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>12.57</v>
+      </c>
+      <c r="C3">
+        <v>2.27</v>
+      </c>
+      <c r="D3">
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>10.71</v>
+      </c>
+      <c r="C4">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="D4">
+        <v>9.6</v>
+      </c>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A8454C2-D505-4BE9-A00C-2F5F82517839}">
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1878,92 +4928,230 @@
     <col min="2" max="2" width="25.6328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.08984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.1796875" customWidth="1"/>
+    <col min="6" max="6" width="24.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="1"/>
+      <c r="E1" s="1"/>
       <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>1.63</v>
+        <v>1.5489999999999999</v>
       </c>
       <c r="C2">
-        <v>2.27</v>
+        <v>2.39</v>
       </c>
       <c r="D2">
-        <v>9.4499999999999993</v>
-      </c>
-      <c r="E2">
-        <v>2</v>
+        <v>3.77</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="C3">
+        <v>1.17</v>
+      </c>
+      <c r="D3">
+        <v>2.0099999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>0.76100000000000001</v>
+      </c>
+      <c r="C4">
+        <v>1.17</v>
+      </c>
+      <c r="D4">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3">
-        <v>12.57</v>
-      </c>
-      <c r="C3">
-        <v>2.27</v>
-      </c>
-      <c r="D3">
-        <v>9.4499999999999993</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
+      <c r="B5">
+        <f>1.632</f>
+        <v>1.6319999999999999</v>
+      </c>
+      <c r="C5">
+        <v>0.61</v>
+      </c>
+      <c r="D5">
+        <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>10.71</v>
-      </c>
-      <c r="C4">
-        <v>2.2799999999999998</v>
-      </c>
-      <c r="D4">
-        <v>9.6</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>1.1639999999999999</v>
+      </c>
+      <c r="C6">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D6">
+        <v>1.41</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB8A79F4-1607-4AB9-B9C5-1A44146CDC76}">
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="24.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.1796875" customWidth="1"/>
+    <col min="6" max="6" width="24.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>1.7270000000000001</v>
+      </c>
+      <c r="C2">
+        <v>1.53</v>
+      </c>
+      <c r="D2">
+        <v>5.53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>0.60099999999999998</v>
+      </c>
+      <c r="C3">
+        <v>0.71</v>
+      </c>
+      <c r="D3">
+        <v>4.72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="C4">
+        <v>0.71</v>
+      </c>
+      <c r="D4">
+        <v>4.72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>0.253</v>
+      </c>
+      <c r="C5">
+        <v>0.84</v>
+      </c>
+      <c r="D5">
+        <v>4.84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="C6">
+        <v>0.52</v>
+      </c>
+      <c r="D6">
+        <v>4.53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/assets/GPT-lite-DeepSpeed/benchmark.xlsx
+++ b/assets/GPT-lite-DeepSpeed/benchmark.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t-bmagalhaes\Desktop\brunomaga.github.io\assets\GPT-lite-DeepSpeed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC39667-8994-45F7-AA4D-FB0E788A21F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{154A2F4C-6D51-4753-8FDB-C4420ED5BA22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16140" yWindow="-21240" windowWidth="16410" windowHeight="14760" firstSheet="1" activeTab="2" xr2:uid="{5CE2D5A5-40E8-479C-B7CB-2387D3474101}"/>
+    <workbookView xWindow="-16140" yWindow="-21240" windowWidth="16410" windowHeight="14760" tabRatio="669" activeTab="2" xr2:uid="{5CE2D5A5-40E8-479C-B7CB-2387D3474101}"/>
   </bookViews>
   <sheets>
     <sheet name="GPTlite" sheetId="1" r:id="rId1"/>
@@ -38,27 +38,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
-  <si>
-    <t>Single GPU</t>
-  </si>
-  <si>
-    <t>Mem Allocated (GB)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
   <si>
     <t>Max Mem Allocated (GB)</t>
   </si>
   <si>
-    <t>DeepSpeedZeRO-Infinity</t>
-  </si>
-  <si>
-    <t>DeepSpeed ZerRO1 Pipeline</t>
-  </si>
-  <si>
     <t>Distributed Data Parallel</t>
-  </si>
-  <si>
-    <t>Throughput (samples/sec)</t>
   </si>
   <si>
     <t>DeepSpeed ZeRO-3</t>
@@ -86,6 +71,9 @@
   </si>
   <si>
     <t>Throughput (10K samples/sec)</t>
+  </si>
+  <si>
+    <t>GPT-lite</t>
   </si>
 </sst>
 </file>
@@ -163,7 +151,67 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>GPT</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> lite model (small)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -171,15 +219,128 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="5"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>GPTlite!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DeepSpeed ZeRO-1 Pipeline</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>GPTlite!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Throughput (10K samples/sec)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Avg Mem Allocated (GB)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Max Mem Allocated (GB)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>GPTlite!$B$7:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-F32D-435F-BF91-9D7DA7FFEBED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="4"/>
-          <c:order val="0"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>GPTlite!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>DeepSpeed ZerRO1 Pipeline</c:v>
+                  <c:v>DeepSpeed ZeRO-Infinity</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -257,10 +418,10 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Throughput (samples/sec)</c:v>
+                  <c:v>Throughput (10K samples/sec)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Mem Allocated (GB)</c:v>
+                  <c:v>Avg Mem Allocated (GB)</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Max Mem Allocated (GB)</c:v>
@@ -274,25 +435,400 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.20399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.53</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-5066-4F33-8777-B1DB1EFD04FA}"/>
+              <c16:uniqueId val="{00000007-F32D-435F-BF91-9D7DA7FFEBED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
-          <c:order val="1"/>
+          <c:idx val="0"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>GPTlite!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>DeepSpeedZeRO-Infinity</c:v>
+                  <c:v>DeepSpeed ZeRO-3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>GPTlite!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Throughput (10K samples/sec)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Avg Mem Allocated (GB)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Max Mem Allocated (GB)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>GPTlite!$B$5:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.253</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.84</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-F32D-435F-BF91-9D7DA7FFEBED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>GPTlite!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DeepSpeed ZeRO-2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>GPTlite!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Throughput (10K samples/sec)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Avg Mem Allocated (GB)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Max Mem Allocated (GB)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>GPTlite!$B$4:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.498</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F32D-435F-BF91-9D7DA7FFEBED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>GPTlite!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DeepSpeed ZeRO-1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>GPTlite!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Throughput (10K samples/sec)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Avg Mem Allocated (GB)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Max Mem Allocated (GB)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>GPTlite!$B$3:$D$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.60099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F32D-435F-BF91-9D7DA7FFEBED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>GPTlite!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Distributed Data Parallel</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -370,367 +906,10 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Throughput (samples/sec)</c:v>
+                  <c:v>Throughput (10K samples/sec)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Mem Allocated (GB)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Max Mem Allocated (GB)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>GPTlite!$B$5:$D$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-5066-4F33-8777-B1DB1EFD04FA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>GPTlite!$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>DeepSpeed ZeRO-3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>GPTlite!$B$1:$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Throughput (samples/sec)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Mem Allocated (GB)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Max Mem Allocated (GB)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>GPTlite!$B$4:$D$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>10.71</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.2799999999999998</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-5066-4F33-8777-B1DB1EFD04FA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>GPTlite!$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Distributed Data Parallel</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>GPTlite!$B$1:$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Throughput (samples/sec)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Mem Allocated (GB)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Max Mem Allocated (GB)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>GPTlite!$B$3:$D$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>12.57</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.27</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.4499999999999993</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5066-4F33-8777-B1DB1EFD04FA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>GPTlite!$A$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Single GPU</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>GPTlite!$B$1:$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Throughput (samples/sec)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Mem Allocated (GB)</c:v>
+                  <c:v>Avg Mem Allocated (GB)</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Max Mem Allocated (GB)</c:v>
@@ -745,20 +924,20 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.63</c:v>
+                  <c:v>1.7270000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.27</c:v>
+                  <c:v>1.53</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.4499999999999993</c:v>
+                  <c:v>5.53</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5066-4F33-8777-B1DB1EFD04FA}"/>
+              <c16:uniqueId val="{00000000-F32D-435F-BF91-9D7DA7FFEBED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -897,8 +1076,8 @@
           <c:yMode val="edge"/>
           <c:x val="4.7117083394528379E-2"/>
           <c:y val="0.93405171288902489"/>
-          <c:w val="0.93891886910192313"/>
-          <c:h val="6.2698897203119622E-2"/>
+          <c:w val="0.67591730808929784"/>
+          <c:h val="6.594838734095769E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1062,6 +1241,63 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'Benchmark Wide'!$B$1:$D$1</c:f>
@@ -2011,6 +2247,63 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'Benchmark Deep'!$B$1:$D$1</c:f>
@@ -2067,6 +2360,63 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'Benchmark Deep'!$B$1:$D$1</c:f>
@@ -2132,6 +2482,63 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'Benchmark Deep'!$B$1:$D$1</c:f>
@@ -2278,7 +2685,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>4.9800000000000004</c:v>
+                  <c:v>0.498</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.71</c:v>
@@ -4379,26 +4786,28 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1670050</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>1800225</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>105550</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Chart 7">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3653656-0170-92AD-FE1A-64009D2A1BB7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46A3F170-02DF-4349-85FB-48574102534E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -4420,15 +4829,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1657350</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>111900</xdr:rowOff>
+      <xdr:colOff>1543050</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>159525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4818,108 +5227,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BBAB1DA-DD82-4512-8D36-0FA776F72118}">
-  <dimension ref="A1:I6"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="24.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.1796875" customWidth="1"/>
-    <col min="6" max="6" width="24.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.1796875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1.63</v>
-      </c>
-      <c r="C2">
-        <v>2.27</v>
-      </c>
-      <c r="D2">
-        <v>9.4499999999999993</v>
-      </c>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>12.57</v>
-      </c>
-      <c r="C3">
-        <v>2.27</v>
-      </c>
-      <c r="D3">
-        <v>9.4499999999999993</v>
-      </c>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>10.71</v>
-      </c>
-      <c r="C4">
-        <v>2.2799999999999998</v>
-      </c>
-      <c r="D4">
-        <v>9.6</v>
-      </c>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A8454C2-D505-4BE9-A00C-2F5F82517839}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4937,16 +5248,16 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E1" s="1"/>
       <c r="G1" s="1"/>
@@ -4955,92 +5266,92 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>1.5489999999999999</v>
+        <v>1.7270000000000001</v>
       </c>
       <c r="C2">
-        <v>2.39</v>
+        <v>1.53</v>
       </c>
       <c r="D2">
-        <v>3.77</v>
+        <v>5.53</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>0.71099999999999997</v>
+        <v>0.60099999999999998</v>
       </c>
       <c r="C3">
-        <v>1.17</v>
+        <v>0.71</v>
       </c>
       <c r="D3">
-        <v>2.0099999999999998</v>
+        <v>4.72</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>0.76100000000000001</v>
+        <v>0.498</v>
       </c>
       <c r="C4">
-        <v>1.17</v>
+        <v>0.71</v>
       </c>
       <c r="D4">
-        <v>1.88</v>
+        <v>4.72</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B5">
-        <f>1.632</f>
-        <v>1.6319999999999999</v>
+        <v>0.253</v>
       </c>
       <c r="C5">
-        <v>0.61</v>
+        <v>0.84</v>
       </c>
       <c r="D5">
-        <v>2.0699999999999998</v>
+        <v>4.84</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>1.1639999999999999</v>
+        <v>0.20399999999999999</v>
       </c>
       <c r="C6">
-        <v>0.14000000000000001</v>
+        <v>0.52</v>
       </c>
       <c r="D6">
-        <v>1.41</v>
+        <v>4.53</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB8A79F4-1607-4AB9-B9C5-1A44146CDC76}">
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A8454C2-D505-4BE9-A00C-2F5F82517839}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5058,16 +5369,16 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E1" s="1"/>
       <c r="G1" s="1"/>
@@ -5076,77 +5387,198 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>1.7270000000000001</v>
+        <v>1.5489999999999999</v>
       </c>
       <c r="C2">
-        <v>1.53</v>
+        <v>2.39</v>
       </c>
       <c r="D2">
-        <v>5.53</v>
+        <v>3.77</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>0.60099999999999998</v>
+        <v>0.71099999999999997</v>
       </c>
       <c r="C3">
-        <v>0.71</v>
+        <v>1.17</v>
       </c>
       <c r="D3">
-        <v>4.72</v>
+        <v>2.0099999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>4.9800000000000004</v>
+        <v>0.76100000000000001</v>
       </c>
       <c r="C4">
-        <v>0.71</v>
+        <v>1.17</v>
       </c>
       <c r="D4">
-        <v>4.72</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B5">
-        <v>0.253</v>
+        <f>1.632</f>
+        <v>1.6319999999999999</v>
       </c>
       <c r="C5">
-        <v>0.84</v>
+        <v>0.61</v>
       </c>
       <c r="D5">
-        <v>4.84</v>
+        <v>2.0699999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.20399999999999999</v>
+        <v>1.1639999999999999</v>
       </c>
       <c r="C6">
-        <v>0.52</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D6">
-        <v>4.53</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB8A79F4-1607-4AB9-B9C5-1A44146CDC76}">
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="24.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.1796875" customWidth="1"/>
+    <col min="6" max="6" width="24.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1.7270000000000001</v>
+      </c>
+      <c r="C2">
+        <v>1.53</v>
+      </c>
+      <c r="D2">
+        <v>5.53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>0.60099999999999998</v>
+      </c>
+      <c r="C3">
+        <v>0.71</v>
+      </c>
+      <c r="D3">
+        <v>4.72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>0.498</v>
+      </c>
+      <c r="C4">
+        <v>0.71</v>
+      </c>
+      <c r="D4">
+        <v>4.72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>0.253</v>
+      </c>
+      <c r="C5">
+        <v>0.84</v>
+      </c>
+      <c r="D5">
+        <v>4.84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="C6">
+        <v>0.52</v>
+      </c>
+      <c r="D6">
+        <v>4.53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/assets/GPT-lite-DeepSpeed/benchmark.xlsx
+++ b/assets/GPT-lite-DeepSpeed/benchmark.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t-bmagalhaes\Desktop\brunomaga.github.io\assets\GPT-lite-DeepSpeed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{154A2F4C-6D51-4753-8FDB-C4420ED5BA22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA40F03-6FE9-4B08-81D2-186749CE3F66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-16140" yWindow="-21240" windowWidth="16410" windowHeight="14760" tabRatio="669" activeTab="2" xr2:uid="{5CE2D5A5-40E8-479C-B7CB-2387D3474101}"/>
   </bookViews>
@@ -1218,7 +1218,7 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="3"/>
+          <c:idx val="5"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
@@ -1233,7 +1233,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent4"/>
+              <a:schemeClr val="accent6"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1326,12 +1326,12 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6783-47FD-8B50-B30016C9542F}"/>
+              <c16:uniqueId val="{00000002-E405-45C5-B847-3310226F5C48}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="4"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
@@ -1346,7 +1346,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent3"/>
+              <a:schemeClr val="accent5"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1448,12 +1448,12 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-6783-47FD-8B50-B30016C9542F}"/>
+              <c16:uniqueId val="{00000001-E405-45C5-B847-3310226F5C48}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="0"/>
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
@@ -1462,128 +1462,6 @@
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>DeepSpeed ZeRO-3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Benchmark Wide'!$B$1:$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Throughput (10K samples/sec)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Avg Mem Allocated (GB)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Max Mem Allocated (GB)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Benchmark Wide'!$B$5:$D$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1.6319999999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.61</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.0699999999999998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-6783-47FD-8B50-B30016C9542F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Benchmark Wide'!$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>DeepSpeed ZeRO-2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1674,6 +1552,71 @@
           </c:cat>
           <c:val>
             <c:numRef>
+              <c:f>'Benchmark Wide'!$B$5:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.6319999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0699999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E405-45C5-B847-3310226F5C48}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Benchmark Wide'!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DeepSpeed ZeRO-2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Benchmark Wide'!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Throughput (10K samples/sec)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Avg Mem Allocated (GB)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Max Mem Allocated (GB)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
               <c:f>'Benchmark Wide'!$B$4:$D$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -1692,12 +1635,12 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-6783-47FD-8B50-B30016C9542F}"/>
+              <c16:uniqueId val="{00000003-6783-47FD-8B50-B30016C9542F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="5"/>
+          <c:idx val="2"/>
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
@@ -1712,7 +1655,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent6"/>
+              <a:schemeClr val="accent3"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1720,63 +1663,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'Benchmark Wide'!$B$1:$D$1</c:f>
@@ -1814,12 +1700,12 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-6783-47FD-8B50-B30016C9542F}"/>
+              <c16:uniqueId val="{00000002-6783-47FD-8B50-B30016C9542F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="6"/>
+          <c:idx val="3"/>
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
@@ -1834,9 +1720,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
+              <a:schemeClr val="accent4"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1844,63 +1728,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'Benchmark Wide'!$B$1:$D$1</c:f>
@@ -1938,7 +1765,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-6783-47FD-8B50-B30016C9542F}"/>
+              <c16:uniqueId val="{00000001-6783-47FD-8B50-B30016C9542F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2078,7 +1905,7 @@
           <c:x val="4.7117083394528379E-2"/>
           <c:y val="0.93405171288902489"/>
           <c:w val="0.67591730808929784"/>
-          <c:h val="6.5948484848484853E-2"/>
+          <c:h val="6.594838734095769E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2224,7 +2051,7 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="5"/>
+          <c:idx val="3"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
@@ -2239,7 +2066,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent6"/>
+              <a:schemeClr val="accent4"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -2332,12 +2159,12 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000B-7CEA-4C2F-B755-15A8E344247C}"/>
+              <c16:uniqueId val="{00000002-49D9-4C3E-A989-CAC4E0B4C28F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="4"/>
+          <c:idx val="2"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
@@ -2352,7 +2179,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent5"/>
+              <a:schemeClr val="accent3"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -2454,12 +2281,12 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-7CEA-4C2F-B755-15A8E344247C}"/>
+              <c16:uniqueId val="{00000001-49D9-4C3E-A989-CAC4E0B4C28F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
@@ -2474,7 +2301,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent2"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -2576,12 +2403,12 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-7CEA-4C2F-B755-15A8E344247C}"/>
+              <c16:uniqueId val="{00000000-49D9-4C3E-A989-CAC4E0B4C28F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="0"/>
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
@@ -2596,7 +2423,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="accent1"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -2698,12 +2525,12 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-7CEA-4C2F-B755-15A8E344247C}"/>
+              <c16:uniqueId val="{00000009-7CEA-4C2F-B755-15A8E344247C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="4"/>
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
@@ -2718,7 +2545,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent3"/>
+              <a:schemeClr val="accent5"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -2820,12 +2647,12 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7CEA-4C2F-B755-15A8E344247C}"/>
+              <c16:uniqueId val="{0000000A-7CEA-4C2F-B755-15A8E344247C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
+          <c:idx val="5"/>
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
@@ -2840,7 +2667,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent4"/>
+              <a:schemeClr val="accent6"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -2942,7 +2769,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7CEA-4C2F-B755-15A8E344247C}"/>
+              <c16:uniqueId val="{0000000B-7CEA-4C2F-B755-15A8E344247C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5350,8 +5177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A8454C2-D505-4BE9-A00C-2F5F82517839}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5472,7 +5299,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/assets/GPT-lite-DeepSpeed/benchmark.xlsx
+++ b/assets/GPT-lite-DeepSpeed/benchmark.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t-bmagalhaes\Desktop\brunomaga.github.io\assets\GPT-lite-DeepSpeed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA40F03-6FE9-4B08-81D2-186749CE3F66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB8CA72F-027E-4EBC-86D7-7CF01185D427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16140" yWindow="-21240" windowWidth="16410" windowHeight="14760" tabRatio="669" activeTab="2" xr2:uid="{5CE2D5A5-40E8-479C-B7CB-2387D3474101}"/>
+    <workbookView xWindow="-16320" yWindow="-22185" windowWidth="16440" windowHeight="29040" tabRatio="669" activeTab="1" xr2:uid="{5CE2D5A5-40E8-479C-B7CB-2387D3474101}"/>
   </bookViews>
   <sheets>
     <sheet name="GPTlite" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="13">
   <si>
     <t>Max Mem Allocated (GB)</t>
   </si>
@@ -73,7 +73,10 @@
     <t>Throughput (10K samples/sec)</t>
   </si>
   <si>
-    <t>GPT-lite</t>
+    <t>GPT-lite small</t>
+  </si>
+  <si>
+    <t>Throughput (samples/sec)</t>
   </si>
 </sst>
 </file>
@@ -172,11 +175,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>GPT</a:t>
+              <a:t>GPT-lite</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> lite model (small)</a:t>
+              <a:t> model (small)</a:t>
             </a:r>
             <a:endParaRPr lang="en-GB"/>
           </a:p>
@@ -223,7 +226,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>GPTlite!$A$7</c:f>
+              <c:f>GPTlite!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -305,7 +308,7 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Throughput (10K samples/sec)</c:v>
+                  <c:v>Throughput (samples/sec)</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Avg Mem Allocated (GB)</c:v>
@@ -318,7 +321,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>GPTlite!$B$7:$D$7</c:f>
+              <c:f>GPTlite!$B$2:$D$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -327,7 +330,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-F32D-435F-BF91-9D7DA7FFEBED}"/>
+              <c16:uniqueId val="{00000000-D7BC-4C73-9384-8E03114129B3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -336,7 +339,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>GPTlite!$A$6</c:f>
+              <c:f>GPTlite!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -418,7 +421,7 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Throughput (10K samples/sec)</c:v>
+                  <c:v>Throughput (samples/sec)</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Avg Mem Allocated (GB)</c:v>
@@ -431,25 +434,25 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>GPTlite!$B$6:$D$6</c:f>
+              <c:f>GPTlite!$B$3:$D$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.20399999999999999</c:v>
+                  <c:v>6.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.52</c:v>
+                  <c:v>2.35</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.53</c:v>
+                  <c:v>9.16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-F32D-435F-BF91-9D7DA7FFEBED}"/>
+              <c16:uniqueId val="{00000001-D7BC-4C73-9384-8E03114129B3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -458,7 +461,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>GPTlite!$A$5</c:f>
+              <c:f>GPTlite!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -540,7 +543,129 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Throughput (10K samples/sec)</c:v>
+                  <c:v>Throughput (samples/sec)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Avg Mem Allocated (GB)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Max Mem Allocated (GB)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>GPTlite!$B$4:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.3699999999999992</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D7BC-4C73-9384-8E03114129B3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>GPTlite!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DeepSpeed ZeRO-2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>GPTlite!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Throughput (samples/sec)</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Avg Mem Allocated (GB)</c:v>
@@ -558,40 +683,673 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.253</c:v>
+                  <c:v>10.44</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.84</c:v>
+                  <c:v>2.71</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.84</c:v>
+                  <c:v>9.33</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-F32D-435F-BF91-9D7DA7FFEBED}"/>
+              <c16:uniqueId val="{0000000C-D7BC-4C73-9384-8E03114129B3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
-          <c:order val="3"/>
+          <c:idx val="2"/>
+          <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>GPTlite!$A$4</c:f>
+              <c:f>GPTlite!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>DeepSpeed ZeRO-2</c:v>
+                  <c:v>DeepSpeed ZeRO-1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>GPTlite!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Throughput (samples/sec)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Avg Mem Allocated (GB)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Max Mem Allocated (GB)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>GPTlite!$B$6:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>11.07</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.71</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.61</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-D7BC-4C73-9384-8E03114129B3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>GPTlite!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Distributed Data Parallel</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>GPTlite!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Throughput (samples/sec)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Avg Mem Allocated (GB)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Max Mem Allocated (GB)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>GPTlite!$B$7:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>11.45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-D7BC-4C73-9384-8E03114129B3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="388047104"/>
+        <c:axId val="345613824"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="388047104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="345613824"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="345613824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="388047104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.7117083394528379E-2"/>
+          <c:y val="0.93405171288902489"/>
+          <c:w val="0.67559472030485901"/>
+          <c:h val="6.5948368596363716E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Wide benchmark model (W=8192, L=3)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Benchmark Wide'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DeepSpeed ZeRO-1 Pipeline</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Benchmark Wide'!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Throughput (10K samples/sec)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Avg Mem Allocated (GB)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Max Mem Allocated (GB)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Benchmark Wide'!$B$2:$D$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E405-45C5-B847-3310226F5C48}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Benchmark Wide'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DeepSpeed ZeRO-Infinity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -658,7 +1416,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>GPTlite!$B$1:$D$1</c:f>
+              <c:f>'Benchmark Wide'!$B$1:$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -675,45 +1433,45 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>GPTlite!$B$4:$D$4</c:f>
+              <c:f>'Benchmark Wide'!$B$3:$D$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.498</c:v>
+                  <c:v>1.1639999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.71</c:v>
+                  <c:v>0.14000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.72</c:v>
+                  <c:v>1.41</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-F32D-435F-BF91-9D7DA7FFEBED}"/>
+              <c16:uniqueId val="{00000001-E405-45C5-B847-3310226F5C48}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
-          <c:order val="4"/>
+          <c:idx val="0"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>GPTlite!$A$3</c:f>
+              <c:f>'Benchmark Wide'!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>DeepSpeed ZeRO-1</c:v>
+                  <c:v>DeepSpeed ZeRO-3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent3"/>
+              <a:schemeClr val="accent1"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -780,7 +1538,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>GPTlite!$B$1:$D$1</c:f>
+              <c:f>'Benchmark Wide'!$B$1:$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -797,25 +1555,269 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>GPTlite!$B$3:$D$3</c:f>
+              <c:f>'Benchmark Wide'!$B$4:$D$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.60099999999999998</c:v>
+                  <c:v>1.853</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.71</c:v>
+                  <c:v>0.61</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.72</c:v>
+                  <c:v>1.88</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F32D-435F-BF91-9D7DA7FFEBED}"/>
+              <c16:uniqueId val="{00000000-E405-45C5-B847-3310226F5C48}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Benchmark Wide'!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DeepSpeed ZeRO-2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Benchmark Wide'!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Throughput (10K samples/sec)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Avg Mem Allocated (GB)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Max Mem Allocated (GB)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Benchmark Wide'!$B$5:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.72799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.88</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FDB3-4845-A32C-B9D68D2FEBCC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Benchmark Wide'!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DeepSpeed ZeRO-1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Benchmark Wide'!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Throughput (10K samples/sec)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Avg Mem Allocated (GB)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Max Mem Allocated (GB)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Benchmark Wide'!$B$6:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.79400000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0099999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FDB3-4845-A32C-B9D68D2FEBCC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -824,7 +1826,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>GPTlite!$A$2</c:f>
+              <c:f>'Benchmark Wide'!$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -836,6 +1838,517 @@
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Benchmark Wide'!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Throughput (10K samples/sec)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Avg Mem Allocated (GB)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Max Mem Allocated (GB)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Benchmark Wide'!$B$7:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.57</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.39</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.89</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FDB3-4845-A32C-B9D68D2FEBCC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="388047104"/>
+        <c:axId val="345613824"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="388047104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="345613824"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="345613824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="388047104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.7117083394528379E-2"/>
+          <c:y val="0.93405171288902489"/>
+          <c:w val="0.67610260541094158"/>
+          <c:h val="6.5948219079617995E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Wide benchmark model (W=8192, L=3)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Benchmark Deep'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DeepSpeed ZeRO-1 Pipeline</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Benchmark Deep'!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Throughput (10K samples/sec)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Avg Mem Allocated (GB)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Max Mem Allocated (GB)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Benchmark Deep'!$B$2:$D$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2735-473C-8B81-084F2428B76E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Benchmark Deep'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DeepSpeed ZeRO-Infinity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -902,7 +2415,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>GPTlite!$B$1:$D$1</c:f>
+              <c:f>'Benchmark Deep'!$B$1:$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -919,7 +2432,495 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>GPTlite!$B$2:$D$2</c:f>
+              <c:f>'Benchmark Deep'!$B$3:$D$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.20399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.53</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2735-473C-8B81-084F2428B76E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Benchmark Deep'!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DeepSpeed ZeRO-3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Benchmark Deep'!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Throughput (10K samples/sec)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Avg Mem Allocated (GB)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Max Mem Allocated (GB)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Benchmark Deep'!$B$4:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.253</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.84</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2735-473C-8B81-084F2428B76E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Benchmark Deep'!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DeepSpeed ZeRO-2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Benchmark Deep'!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Throughput (10K samples/sec)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Avg Mem Allocated (GB)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Max Mem Allocated (GB)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Benchmark Deep'!$B$5:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.498</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-2735-473C-8B81-084F2428B76E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Benchmark Deep'!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DeepSpeed ZeRO-1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Benchmark Deep'!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Throughput (10K samples/sec)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Avg Mem Allocated (GB)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Max Mem Allocated (GB)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Benchmark Deep'!$B$6:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.60099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-2735-473C-8B81-084F2428B76E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Benchmark Deep'!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Distributed Data Parallel</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Benchmark Deep'!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Throughput (10K samples/sec)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Avg Mem Allocated (GB)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Max Mem Allocated (GB)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Benchmark Deep'!$B$7:$D$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -937,7 +2938,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F32D-435F-BF91-9D7DA7FFEBED}"/>
+              <c16:uniqueId val="{0000000B-2735-473C-8B81-084F2428B76E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1141,1838 +3142,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Wide benchmark model (W=8192, L=3)</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="bar"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Benchmark Wide'!$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>DeepSpeed ZeRO-1 Pipeline</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Benchmark Wide'!$B$1:$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Throughput (10K samples/sec)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Avg Mem Allocated (GB)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Max Mem Allocated (GB)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Benchmark Wide'!$B$7:$D$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-E405-45C5-B847-3310226F5C48}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Benchmark Wide'!$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>DeepSpeed ZeRO-Infinity</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Benchmark Wide'!$B$1:$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Throughput (10K samples/sec)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Avg Mem Allocated (GB)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Max Mem Allocated (GB)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Benchmark Wide'!$B$6:$D$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1.1639999999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.14000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.41</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E405-45C5-B847-3310226F5C48}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Benchmark Wide'!$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>DeepSpeed ZeRO-3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Benchmark Wide'!$B$1:$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Throughput (10K samples/sec)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Avg Mem Allocated (GB)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Max Mem Allocated (GB)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Benchmark Wide'!$B$5:$D$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1.6319999999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.61</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.0699999999999998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E405-45C5-B847-3310226F5C48}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Benchmark Wide'!$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>DeepSpeed ZeRO-2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Benchmark Wide'!$B$1:$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Throughput (10K samples/sec)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Avg Mem Allocated (GB)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Max Mem Allocated (GB)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Benchmark Wide'!$B$4:$D$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.76100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.17</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.88</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-6783-47FD-8B50-B30016C9542F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Benchmark Wide'!$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>DeepSpeed ZeRO-1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Benchmark Wide'!$B$1:$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Throughput (10K samples/sec)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Avg Mem Allocated (GB)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Max Mem Allocated (GB)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Benchmark Wide'!$B$3:$D$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.71099999999999997</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.17</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.0099999999999998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-6783-47FD-8B50-B30016C9542F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Benchmark Wide'!$A$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Distributed Data Parallel</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Benchmark Wide'!$B$1:$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Throughput (10K samples/sec)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Avg Mem Allocated (GB)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Max Mem Allocated (GB)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Benchmark Wide'!$B$2:$D$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1.5489999999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.39</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.77</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6783-47FD-8B50-B30016C9542F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="182"/>
-        <c:axId val="388047104"/>
-        <c:axId val="345613824"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="388047104"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="345613824"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="345613824"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="388047104"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="4.7117083394528379E-2"/>
-          <c:y val="0.93405171288902489"/>
-          <c:w val="0.67591730808929784"/>
-          <c:h val="6.594838734095769E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:noFill/>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Deep benchmark</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> model (W=256, L=1024)</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-GB"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="bar"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Benchmark Deep'!$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>DeepSpeed ZeRO-1 Pipeline</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Benchmark Deep'!$B$1:$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Throughput (10K samples/sec)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Avg Mem Allocated (GB)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Max Mem Allocated (GB)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Benchmark Deep'!$B$7:$D$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-49D9-4C3E-A989-CAC4E0B4C28F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Benchmark Deep'!$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>DeepSpeed ZeRO-Infinity</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Benchmark Deep'!$B$1:$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Throughput (10K samples/sec)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Avg Mem Allocated (GB)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Max Mem Allocated (GB)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Benchmark Deep'!$B$6:$D$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.20399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.52</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.53</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-49D9-4C3E-A989-CAC4E0B4C28F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Benchmark Deep'!$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>DeepSpeed ZeRO-3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Benchmark Deep'!$B$1:$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Throughput (10K samples/sec)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Avg Mem Allocated (GB)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Max Mem Allocated (GB)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Benchmark Deep'!$B$5:$D$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.253</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.84</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.84</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-49D9-4C3E-A989-CAC4E0B4C28F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Benchmark Deep'!$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>DeepSpeed ZeRO-2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Benchmark Deep'!$B$1:$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Throughput (10K samples/sec)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Avg Mem Allocated (GB)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Max Mem Allocated (GB)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Benchmark Deep'!$B$4:$D$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.498</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.71</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.72</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-7CEA-4C2F-B755-15A8E344247C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Benchmark Deep'!$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>DeepSpeed ZeRO-1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Benchmark Deep'!$B$1:$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Throughput (10K samples/sec)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Avg Mem Allocated (GB)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Max Mem Allocated (GB)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Benchmark Deep'!$B$3:$D$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.60099999999999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.71</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.72</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-7CEA-4C2F-B755-15A8E344247C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Benchmark Deep'!$A$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Distributed Data Parallel</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Benchmark Deep'!$B$1:$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Throughput (10K samples/sec)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Avg Mem Allocated (GB)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Max Mem Allocated (GB)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Benchmark Deep'!$B$2:$D$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1.7270000000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.53</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.53</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000B-7CEA-4C2F-B755-15A8E344247C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="182"/>
-        <c:axId val="388047104"/>
-        <c:axId val="345613824"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="388047104"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="345613824"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="345613824"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="388047104"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="4.7117083394528379E-2"/>
-          <c:y val="0.93405171288902489"/>
-          <c:w val="0.67591730808929784"/>
-          <c:h val="6.5948484848484853E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:noFill/>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -4613,22 +4782,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
+      <xdr:colOff>66675</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1800225</xdr:colOff>
+      <xdr:colOff>1244600</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>105550</xdr:rowOff>
+      <xdr:rowOff>775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46A3F170-02DF-4349-85FB-48574102534E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2283713-4C87-4A40-8038-F76F4E458A0E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4656,15 +4825,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>27209</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>13904</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1543050</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>159525</xdr:rowOff>
+      <xdr:colOff>1475009</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>176604</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4699,22 +4868,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>234950</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1682750</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>35700</xdr:rowOff>
+      <xdr:colOff>1447800</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>159525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C4881FF-AFAB-450D-8D23-168D761F6E8E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B4DF4F3-D4F2-41D8-B773-D7776A381426}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5056,14 +5225,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BBAB1DA-DD82-4512-8D36-0FA776F72118}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView zoomScale="122" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="24.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.453125" customWidth="1"/>
     <col min="3" max="3" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.1796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29.1796875" customWidth="1"/>
@@ -5078,7 +5247,7 @@
         <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>5</v>
@@ -5093,77 +5262,77 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1.7270000000000001</v>
-      </c>
-      <c r="C2">
-        <v>1.53</v>
-      </c>
-      <c r="D2">
-        <v>5.53</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.60099999999999998</v>
+        <v>6.2</v>
       </c>
       <c r="C3">
-        <v>0.71</v>
+        <v>2.35</v>
       </c>
       <c r="D3">
-        <v>4.72</v>
+        <v>9.16</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>0.498</v>
+        <v>7.1</v>
       </c>
       <c r="C4">
-        <v>0.71</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="D4">
-        <v>4.72</v>
+        <v>9.3699999999999992</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>0.253</v>
+        <v>10.44</v>
       </c>
       <c r="C5">
-        <v>0.84</v>
+        <v>2.71</v>
       </c>
       <c r="D5">
-        <v>4.84</v>
+        <v>9.33</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B6">
-        <v>0.20399999999999999</v>
+        <v>11.07</v>
       </c>
       <c r="C6">
-        <v>0.52</v>
+        <v>2.71</v>
       </c>
       <c r="D6">
-        <v>4.53</v>
+        <v>9.61</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>11.45</v>
+      </c>
+      <c r="C7">
+        <v>3.24</v>
+      </c>
+      <c r="D7">
+        <v>10.16</v>
       </c>
     </row>
   </sheetData>
@@ -5177,8 +5346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A8454C2-D505-4BE9-A00C-2F5F82517839}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" zoomScale="123" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5214,41 +5383,33 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1.5489999999999999</v>
-      </c>
-      <c r="C2">
-        <v>2.39</v>
-      </c>
-      <c r="D2">
-        <v>3.77</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.71099999999999997</v>
+        <v>1.1639999999999999</v>
       </c>
       <c r="C3">
-        <v>1.17</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D3">
-        <v>2.0099999999999998</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>0.76100000000000001</v>
+        <f>1.853</f>
+        <v>1.853</v>
       </c>
       <c r="C4">
-        <v>1.17</v>
+        <v>0.61</v>
       </c>
       <c r="D4">
         <v>1.88</v>
@@ -5256,36 +5417,44 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <f>1.632</f>
-        <v>1.6319999999999999</v>
+        <v>0.72799999999999998</v>
       </c>
       <c r="C5">
-        <v>0.61</v>
+        <v>1.17</v>
       </c>
       <c r="D5">
-        <v>2.0699999999999998</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B6">
-        <v>1.1639999999999999</v>
+        <v>0.79400000000000004</v>
       </c>
       <c r="C6">
-        <v>0.14000000000000001</v>
+        <v>1.17</v>
       </c>
       <c r="D6">
-        <v>1.41</v>
+        <v>2.0099999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>1.57</v>
+      </c>
+      <c r="C7">
+        <v>2.39</v>
+      </c>
+      <c r="D7">
+        <v>3.89</v>
       </c>
     </row>
   </sheetData>
@@ -5298,8 +5467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB8A79F4-1607-4AB9-B9C5-1A44146CDC76}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5335,77 +5504,77 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1.7270000000000001</v>
-      </c>
-      <c r="C2">
-        <v>1.53</v>
-      </c>
-      <c r="D2">
-        <v>5.53</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.60099999999999998</v>
+        <v>0.20399999999999999</v>
       </c>
       <c r="C3">
-        <v>0.71</v>
+        <v>0.52</v>
       </c>
       <c r="D3">
-        <v>4.72</v>
+        <v>4.53</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>0.498</v>
+        <v>0.253</v>
       </c>
       <c r="C4">
-        <v>0.71</v>
+        <v>0.84</v>
       </c>
       <c r="D4">
-        <v>4.72</v>
+        <v>4.84</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>0.253</v>
+        <v>0.498</v>
       </c>
       <c r="C5">
-        <v>0.84</v>
+        <v>0.71</v>
       </c>
       <c r="D5">
-        <v>4.84</v>
+        <v>4.72</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B6">
-        <v>0.20399999999999999</v>
+        <v>0.60099999999999998</v>
       </c>
       <c r="C6">
-        <v>0.52</v>
+        <v>0.71</v>
       </c>
       <c r="D6">
-        <v>4.53</v>
+        <v>4.72</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>1.7270000000000001</v>
+      </c>
+      <c r="C7">
+        <v>1.53</v>
+      </c>
+      <c r="D7">
+        <v>5.53</v>
       </c>
     </row>
   </sheetData>

--- a/assets/GPT-lite-DeepSpeed/benchmark.xlsx
+++ b/assets/GPT-lite-DeepSpeed/benchmark.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t-bmagalhaes\Desktop\brunomaga.github.io\assets\GPT-lite-DeepSpeed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB8CA72F-027E-4EBC-86D7-7CF01185D427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2C958C7-E8F8-4DDB-9A3E-475776E60A67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-22185" windowWidth="16440" windowHeight="29040" tabRatio="669" activeTab="1" xr2:uid="{5CE2D5A5-40E8-479C-B7CB-2387D3474101}"/>
+    <workbookView xWindow="-16320" yWindow="-22185" windowWidth="16440" windowHeight="29040" tabRatio="669" activeTab="2" xr2:uid="{5CE2D5A5-40E8-479C-B7CB-2387D3474101}"/>
   </bookViews>
   <sheets>
     <sheet name="GPTlite" sheetId="1" r:id="rId1"/>
@@ -2178,7 +2178,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>Wide benchmark model (W=8192, L=3)</a:t>
+              <a:t>Deep benchmark model (W=8192, L=3)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3077,8 +3077,8 @@
           <c:yMode val="edge"/>
           <c:x val="4.7117083394528379E-2"/>
           <c:y val="0.93405171288902489"/>
-          <c:w val="0.67591730808929784"/>
-          <c:h val="6.594838734095769E-2"/>
+          <c:w val="0.67645726631105274"/>
+          <c:h val="6.5948520107968242E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -4868,15 +4868,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>24634</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>172434</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1447800</xdr:colOff>
+      <xdr:colOff>1472434</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>159525</xdr:rowOff>
+      <xdr:rowOff>157663</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5346,7 +5346,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A8454C2-D505-4BE9-A00C-2F5F82517839}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="123" workbookViewId="0">
+    <sheetView zoomScale="123" workbookViewId="0">
       <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
@@ -5467,8 +5467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB8A79F4-1607-4AB9-B9C5-1A44146CDC76}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E58" sqref="E58"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="122" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/assets/GPT-lite-DeepSpeed/benchmark.xlsx
+++ b/assets/GPT-lite-DeepSpeed/benchmark.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t-bmagalhaes\Desktop\brunomaga.github.io\assets\GPT-lite-DeepSpeed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2C958C7-E8F8-4DDB-9A3E-475776E60A67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72738768-943B-49D5-B0F0-8F715A6E486D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-16320" yWindow="-22185" windowWidth="16440" windowHeight="29040" tabRatio="669" activeTab="2" xr2:uid="{5CE2D5A5-40E8-479C-B7CB-2387D3474101}"/>
   </bookViews>
@@ -2178,7 +2178,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>Deep benchmark model (W=8192, L=3)</a:t>
+              <a:t>Deep benchmark model (W=256, L=2048)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -5468,7 +5468,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="122" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/assets/GPT-lite-DeepSpeed/benchmark.xlsx
+++ b/assets/GPT-lite-DeepSpeed/benchmark.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t-bmagalhaes\Desktop\brunomaga.github.io\assets\GPT-lite-DeepSpeed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72738768-943B-49D5-B0F0-8F715A6E486D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25EB6CAC-B916-41D2-8296-4AD19FAC8C05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-22185" windowWidth="16440" windowHeight="29040" tabRatio="669" activeTab="2" xr2:uid="{5CE2D5A5-40E8-479C-B7CB-2387D3474101}"/>
+    <workbookView xWindow="-16320" yWindow="-22185" windowWidth="16440" windowHeight="29040" tabRatio="669" xr2:uid="{5CE2D5A5-40E8-479C-B7CB-2387D3474101}"/>
   </bookViews>
   <sheets>
     <sheet name="GPTlite" sheetId="1" r:id="rId1"/>
-    <sheet name="Benchmark Wide" sheetId="2" r:id="rId2"/>
-    <sheet name="Benchmark Deep" sheetId="4" r:id="rId3"/>
+    <sheet name="Benchmark Deep" sheetId="4" r:id="rId2"/>
+    <sheet name="Benchmark Wide" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="16">
   <si>
     <t>Max Mem Allocated (GB)</t>
   </si>
@@ -58,12 +58,6 @@
     <t>Avg Mem Allocated (GB)</t>
   </si>
   <si>
-    <t>DeepSpeed ZeRO-1 Pipeline</t>
-  </si>
-  <si>
-    <t>DeepSpeed ZeRO-Infinity</t>
-  </si>
-  <si>
     <t>W=8192, L=3</t>
   </si>
   <si>
@@ -77,6 +71,21 @@
   </si>
   <si>
     <t>Throughput (samples/sec)</t>
+  </si>
+  <si>
+    <t>DeepSpeed ZeRO-1 Pipeline (4 stages)</t>
+  </si>
+  <si>
+    <t>DeepSpeed ZeRO-3 offloading</t>
+  </si>
+  <si>
+    <t>DeepSpeed ZeRO-1 Pipeline (1 stage)</t>
+  </si>
+  <si>
+    <t>DeepSpeed ZeRO-1 Pipeline (2 stages)</t>
+  </si>
+  <si>
+    <t>DeepSpeed ZeRO-1 Pipeline (8 stages)</t>
   </si>
 </sst>
 </file>
@@ -120,9 +129,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -175,11 +185,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>GPT-lite</a:t>
+              <a:t>GPT</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> model (small)</a:t>
+              <a:t>-lite model (small)</a:t>
             </a:r>
             <a:endParaRPr lang="en-GB"/>
           </a:p>
@@ -216,7 +226,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15296540598160663"/>
+          <c:y val="8.1855950563689314E-2"/>
+          <c:w val="0.58655424287976188"/>
+          <c:h val="0.85680456069089306"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
@@ -230,7 +250,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>DeepSpeed ZeRO-1 Pipeline</c:v>
+                  <c:v>DeepSpeed ZeRO-3 offloading</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -325,12 +345,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.35</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.16</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D7BC-4C73-9384-8E03114129B3}"/>
+              <c16:uniqueId val="{00000000-493C-47F4-95C5-EF102748DC70}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -343,7 +372,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>DeepSpeed ZeRO-Infinity</c:v>
+                  <c:v>DeepSpeed ZeRO-3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -439,20 +468,20 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>6.2</c:v>
+                  <c:v>7.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.35</c:v>
+                  <c:v>2.5499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.16</c:v>
+                  <c:v>9.3699999999999992</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D7BC-4C73-9384-8E03114129B3}"/>
+              <c16:uniqueId val="{00000001-493C-47F4-95C5-EF102748DC70}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -465,7 +494,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>DeepSpeed ZeRO-3</c:v>
+                  <c:v>DeepSpeed ZeRO-2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -495,7 +524,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -561,20 +590,20 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>7.1</c:v>
+                  <c:v>10.44</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.5499999999999998</c:v>
+                  <c:v>2.71</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.3699999999999992</c:v>
+                  <c:v>9.33</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-D7BC-4C73-9384-8E03114129B3}"/>
+              <c16:uniqueId val="{00000002-493C-47F4-95C5-EF102748DC70}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -587,7 +616,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>DeepSpeed ZeRO-2</c:v>
+                  <c:v>DeepSpeed ZeRO-1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -683,20 +712,20 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>10.44</c:v>
+                  <c:v>11.07</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2.71</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.33</c:v>
+                  <c:v>9.61</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000C-D7BC-4C73-9384-8E03114129B3}"/>
+              <c16:uniqueId val="{00000003-493C-47F4-95C5-EF102748DC70}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -709,7 +738,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>DeepSpeed ZeRO-1</c:v>
+                  <c:v>Distributed Data Parallel</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -805,20 +834,20 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>11.07</c:v>
+                  <c:v>11.45</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.71</c:v>
+                  <c:v>3.24</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.61</c:v>
+                  <c:v>10.16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000D-D7BC-4C73-9384-8E03114129B3}"/>
+              <c16:uniqueId val="{00000004-493C-47F4-95C5-EF102748DC70}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -831,7 +860,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Distributed Data Parallel</c:v>
+                  <c:v>DeepSpeed ZeRO-1 Pipeline (8 stages)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -839,6 +868,73 @@
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>GPTlite!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Throughput (samples/sec)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Avg Mem Allocated (GB)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Max Mem Allocated (GB)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>GPTlite!$B$7:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-493C-47F4-95C5-EF102748DC70}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>GPTlite!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DeepSpeed ZeRO-1 Pipeline (4 stages)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -922,25 +1018,273 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>GPTlite!$B$7:$D$7</c:f>
+              <c:f>GPTlite!$B$8:$D$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>11.45</c:v>
+                  <c:v>10.91</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.24</c:v>
+                  <c:v>5.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.16</c:v>
+                  <c:v>12.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000E-D7BC-4C73-9384-8E03114129B3}"/>
+              <c16:uniqueId val="{00000006-493C-47F4-95C5-EF102748DC70}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>GPTlite!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DeepSpeed ZeRO-1 Pipeline (2 stages)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>GPTlite!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Throughput (samples/sec)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Avg Mem Allocated (GB)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Max Mem Allocated (GB)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>GPTlite!$B$9:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>11.02</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-493C-47F4-95C5-EF102748DC70}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>GPTlite!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DeepSpeed ZeRO-1 Pipeline (1 stage)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>GPTlite!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Throughput (samples/sec)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Avg Mem Allocated (GB)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Max Mem Allocated (GB)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>GPTlite!$B$10:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>11.04</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-493C-47F4-95C5-EF102748DC70}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1072,15 +1416,15 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.7117083394528379E-2"/>
-          <c:y val="0.93405171288902489"/>
-          <c:w val="0.67559472030485901"/>
-          <c:h val="6.5948368596363716E-2"/>
+          <c:x val="0.76642530037544343"/>
+          <c:y val="0.24476956527825389"/>
+          <c:w val="0.22333513428133778"/>
+          <c:h val="0.45486482009132873"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1179,7 +1523,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>Wide benchmark model (W=8192, L=3)</a:t>
+              <a:t>Deep benchmark model (W=256, L=2048)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1215,7 +1559,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17227270138509712"/>
+          <c:y val="8.5988254880308534E-2"/>
+          <c:w val="0.58655424287976188"/>
+          <c:h val="0.85680456069089306"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
@@ -1225,11 +1579,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Benchmark Wide'!$A$2</c:f>
+              <c:f>'Benchmark Deep'!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>DeepSpeed ZeRO-1 Pipeline</c:v>
+                  <c:v>DeepSpeed ZeRO-3 offloading</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1237,6 +1591,128 @@
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Benchmark Deep'!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Throughput (10K samples/sec)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Avg Mem Allocated (GB)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Max Mem Allocated (GB)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Benchmark Deep'!$B$2:$D$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.20399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.53</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2735-473C-8B81-084F2428B76E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Benchmark Deep'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DeepSpeed ZeRO-3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1303,7 +1779,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Benchmark Wide'!$B$1:$D$1</c:f>
+              <c:f>'Benchmark Deep'!$B$1:$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1320,36 +1796,45 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Benchmark Wide'!$B$2:$D$2</c:f>
+              <c:f>'Benchmark Deep'!$B$3:$D$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.253</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.84</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-E405-45C5-B847-3310226F5C48}"/>
+              <c16:uniqueId val="{00000001-2735-473C-8B81-084F2428B76E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="4"/>
-          <c:order val="1"/>
+          <c:idx val="0"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Benchmark Wide'!$A$3</c:f>
+              <c:f>'Benchmark Deep'!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>DeepSpeed ZeRO-Infinity</c:v>
+                  <c:v>DeepSpeed ZeRO-2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent5"/>
+              <a:schemeClr val="accent1"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1372,7 +1857,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -1416,7 +1901,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Benchmark Wide'!$B$1:$D$1</c:f>
+              <c:f>'Benchmark Deep'!$B$1:$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1433,147 +1918,25 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Benchmark Wide'!$B$3:$D$3</c:f>
+              <c:f>'Benchmark Deep'!$B$4:$D$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.1639999999999999</c:v>
+                  <c:v>0.498</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.14000000000000001</c:v>
+                  <c:v>0.71</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.41</c:v>
+                  <c:v>4.72</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E405-45C5-B847-3310226F5C48}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Benchmark Wide'!$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>DeepSpeed ZeRO-3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Benchmark Wide'!$B$1:$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Throughput (10K samples/sec)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Avg Mem Allocated (GB)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Max Mem Allocated (GB)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Benchmark Wide'!$B$4:$D$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1.853</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.61</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.88</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E405-45C5-B847-3310226F5C48}"/>
+              <c16:uniqueId val="{00000002-2735-473C-8B81-084F2428B76E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1582,11 +1945,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Benchmark Wide'!$A$5</c:f>
+              <c:f>'Benchmark Deep'!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>DeepSpeed ZeRO-2</c:v>
+                  <c:v>DeepSpeed ZeRO-1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1660,7 +2023,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Benchmark Wide'!$B$1:$D$1</c:f>
+              <c:f>'Benchmark Deep'!$B$1:$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1677,25 +2040,25 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Benchmark Wide'!$B$5:$D$5</c:f>
+              <c:f>'Benchmark Deep'!$B$5:$D$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.72799999999999998</c:v>
+                  <c:v>0.60099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.17</c:v>
+                  <c:v>0.71</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.88</c:v>
+                  <c:v>4.72</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FDB3-4845-A32C-B9D68D2FEBCC}"/>
+              <c16:uniqueId val="{0000001B-2735-473C-8B81-084F2428B76E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1704,11 +2067,11 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Benchmark Wide'!$A$6</c:f>
+              <c:f>'Benchmark Deep'!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>DeepSpeed ZeRO-1</c:v>
+                  <c:v>Distributed Data Parallel</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1782,7 +2145,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Benchmark Wide'!$B$1:$D$1</c:f>
+              <c:f>'Benchmark Deep'!$B$1:$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1799,25 +2162,25 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Benchmark Wide'!$B$6:$D$6</c:f>
+              <c:f>'Benchmark Deep'!$B$6:$D$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.79400000000000004</c:v>
+                  <c:v>1.7270000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.17</c:v>
+                  <c:v>1.53</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0099999999999998</c:v>
+                  <c:v>5.53</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-FDB3-4845-A32C-B9D68D2FEBCC}"/>
+              <c16:uniqueId val="{0000001C-2735-473C-8B81-084F2428B76E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1826,11 +2189,11 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Benchmark Wide'!$A$7</c:f>
+              <c:f>'Benchmark Deep'!$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Distributed Data Parallel</c:v>
+                  <c:v>DeepSpeed ZeRO-1 Pipeline (8 stages)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1838,6 +2201,73 @@
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Benchmark Deep'!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Throughput (10K samples/sec)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Avg Mem Allocated (GB)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Max Mem Allocated (GB)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Benchmark Deep'!$B$7:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.1220000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001D-2735-473C-8B81-084F2428B76E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Benchmark Deep'!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DeepSpeed ZeRO-1 Pipeline (4 stages)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1904,7 +2334,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Benchmark Wide'!$B$1:$D$1</c:f>
+              <c:f>'Benchmark Deep'!$B$1:$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1921,25 +2351,216 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Benchmark Wide'!$B$7:$D$7</c:f>
+              <c:f>'Benchmark Deep'!$B$8:$D$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.57</c:v>
+                  <c:v>0.95699999999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.39</c:v>
+                  <c:v>2.2999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.89</c:v>
+                  <c:v>5.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-FDB3-4845-A32C-B9D68D2FEBCC}"/>
+              <c16:uniqueId val="{0000001E-2735-473C-8B81-084F2428B76E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Benchmark Deep'!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DeepSpeed ZeRO-1 Pipeline (2 stages)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Benchmark Deep'!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Throughput (10K samples/sec)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Avg Mem Allocated (GB)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Max Mem Allocated (GB)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Benchmark Deep'!$B$9:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.77800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001F-2735-473C-8B81-084F2428B76E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Benchmark Deep'!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DeepSpeed ZeRO-1 Pipeline (1 stage)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Benchmark Deep'!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Throughput (10K samples/sec)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Avg Mem Allocated (GB)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Max Mem Allocated (GB)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Benchmark Deep'!$B$10:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.55400000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000020-2735-473C-8B81-084F2428B76E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2071,15 +2692,15 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.7117083394528379E-2"/>
-          <c:y val="0.93405171288902489"/>
-          <c:w val="0.67610260541094158"/>
-          <c:h val="6.5948219079617995E-2"/>
+          <c:x val="0.76624144601783351"/>
+          <c:y val="0.25923245062769379"/>
+          <c:w val="0.22333513428133778"/>
+          <c:h val="0.45486482009132873"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2178,7 +2799,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>Deep benchmark model (W=256, L=2048)</a:t>
+              <a:t>Wide benchmark model (W=8192, L=3)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2214,7 +2835,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17227269151933813"/>
+          <c:y val="0.14285420354967437"/>
+          <c:w val="0.58655424287976188"/>
+          <c:h val="0.76929910897306963"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
@@ -2224,11 +2855,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Benchmark Deep'!$A$2</c:f>
+              <c:f>'Benchmark Wide'!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>DeepSpeed ZeRO-1 Pipeline</c:v>
+                  <c:v>DeepSpeed ZeRO-3 offloading</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2302,7 +2933,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Benchmark Deep'!$B$1:$D$1</c:f>
+              <c:f>'Benchmark Wide'!$B$1:$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2319,16 +2950,25 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Benchmark Deep'!$B$2:$D$2</c:f>
+              <c:f>'Benchmark Wide'!$B$2:$D$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.1639999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.41</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2735-473C-8B81-084F2428B76E}"/>
+              <c16:uniqueId val="{00000000-4520-4F68-B57C-83736757E44D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2337,11 +2977,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Benchmark Deep'!$A$3</c:f>
+              <c:f>'Benchmark Wide'!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>DeepSpeed ZeRO-Infinity</c:v>
+                  <c:v>DeepSpeed ZeRO-3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2415,7 +3055,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Benchmark Deep'!$B$1:$D$1</c:f>
+              <c:f>'Benchmark Wide'!$B$1:$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2432,25 +3072,25 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Benchmark Deep'!$B$3:$D$3</c:f>
+              <c:f>'Benchmark Wide'!$B$3:$D$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.20399999999999999</c:v>
+                  <c:v>1.853</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.52</c:v>
+                  <c:v>0.61</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.53</c:v>
+                  <c:v>1.88</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2735-473C-8B81-084F2428B76E}"/>
+              <c16:uniqueId val="{00000001-4520-4F68-B57C-83736757E44D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2459,11 +3099,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Benchmark Deep'!$A$4</c:f>
+              <c:f>'Benchmark Wide'!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>DeepSpeed ZeRO-3</c:v>
+                  <c:v>DeepSpeed ZeRO-2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2493,7 +3133,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -2537,7 +3177,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Benchmark Deep'!$B$1:$D$1</c:f>
+              <c:f>'Benchmark Wide'!$B$1:$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2554,25 +3194,25 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Benchmark Deep'!$B$4:$D$4</c:f>
+              <c:f>'Benchmark Wide'!$B$4:$D$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.253</c:v>
+                  <c:v>0.72799999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.84</c:v>
+                  <c:v>1.17</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.84</c:v>
+                  <c:v>1.88</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-2735-473C-8B81-084F2428B76E}"/>
+              <c16:uniqueId val="{00000002-4520-4F68-B57C-83736757E44D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2581,11 +3221,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Benchmark Deep'!$A$5</c:f>
+              <c:f>'Benchmark Wide'!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>DeepSpeed ZeRO-2</c:v>
+                  <c:v>DeepSpeed ZeRO-1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2659,7 +3299,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Benchmark Deep'!$B$1:$D$1</c:f>
+              <c:f>'Benchmark Wide'!$B$1:$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2676,25 +3316,25 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Benchmark Deep'!$B$5:$D$5</c:f>
+              <c:f>'Benchmark Wide'!$B$5:$D$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.498</c:v>
+                  <c:v>0.79400000000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.71</c:v>
+                  <c:v>1.17</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.72</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-2735-473C-8B81-084F2428B76E}"/>
+              <c16:uniqueId val="{00000003-4520-4F68-B57C-83736757E44D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2703,11 +3343,11 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Benchmark Deep'!$A$6</c:f>
+              <c:f>'Benchmark Wide'!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>DeepSpeed ZeRO-1</c:v>
+                  <c:v>Distributed Data Parallel</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2781,7 +3421,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Benchmark Deep'!$B$1:$D$1</c:f>
+              <c:f>'Benchmark Wide'!$B$1:$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2798,147 +3438,25 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Benchmark Deep'!$B$6:$D$6</c:f>
+              <c:f>'Benchmark Wide'!$B$6:$D$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.60099999999999998</c:v>
+                  <c:v>1.57</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.71</c:v>
+                  <c:v>2.39</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.72</c:v>
+                  <c:v>3.89</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-2735-473C-8B81-084F2428B76E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Benchmark Deep'!$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Distributed Data Parallel</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Benchmark Deep'!$B$1:$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Throughput (10K samples/sec)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Avg Mem Allocated (GB)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Max Mem Allocated (GB)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Benchmark Deep'!$B$7:$D$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1.7270000000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.53</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.53</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000B-2735-473C-8B81-084F2428B76E}"/>
+              <c16:uniqueId val="{00000004-4520-4F68-B57C-83736757E44D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3070,15 +3588,15 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.7117083394528379E-2"/>
-          <c:y val="0.93405171288902489"/>
-          <c:w val="0.67645726631105274"/>
-          <c:h val="6.5948520107968242E-2"/>
+          <c:x val="0.76624144601783351"/>
+          <c:y val="0.25923245062769379"/>
+          <c:w val="0.22333513428133778"/>
+          <c:h val="0.45486482009132873"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -4782,22 +5300,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>7178</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>20707</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1244600</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>775</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1693485</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>87718</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
+        <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2283713-4C87-4A40-8038-F76F4E458A0E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BCA3AA3-D972-48F2-B8E1-11D1E444B6D4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4825,22 +5343,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>27209</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>13904</xdr:rowOff>
+      <xdr:colOff>75433</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>111167</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1475009</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>176604</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>346989</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>175287</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23ED2034-8ECF-4FEA-939F-F9F7EBD14FBD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B4DF4F3-D4F2-41D8-B773-D7776A381426}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4868,22 +5386,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>24634</xdr:colOff>
+      <xdr:colOff>68300</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>172434</xdr:rowOff>
+      <xdr:rowOff>145741</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1472434</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>157663</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>942247</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>150395</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B4DF4F3-D4F2-41D8-B773-D7776A381426}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16D89522-33BC-4A12-85BD-C1212A89A1A9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5223,15 +5741,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BBAB1DA-DD82-4512-8D36-0FA776F72118}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView zoomScale="122" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.453125" customWidth="1"/>
     <col min="2" max="2" width="29.453125" customWidth="1"/>
     <col min="3" max="3" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.1796875" bestFit="1" customWidth="1"/>
@@ -5244,10 +5762,10 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>5</v>
@@ -5262,77 +5780,128 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>6.2</v>
+      </c>
+      <c r="C2">
+        <v>2.35</v>
+      </c>
+      <c r="D2">
+        <v>9.16</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>6.2</v>
+        <v>7.1</v>
       </c>
       <c r="C3">
-        <v>2.35</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="D3">
-        <v>9.16</v>
+        <v>9.3699999999999992</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>7.1</v>
+        <v>10.44</v>
       </c>
       <c r="C4">
-        <v>2.5499999999999998</v>
+        <v>2.71</v>
       </c>
       <c r="D4">
-        <v>9.3699999999999992</v>
+        <v>9.33</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>10.44</v>
+        <v>11.07</v>
       </c>
       <c r="C5">
         <v>2.71</v>
       </c>
       <c r="D5">
-        <v>9.33</v>
+        <v>9.61</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B6">
-        <v>11.07</v>
+        <v>11.45</v>
       </c>
       <c r="C6">
-        <v>2.71</v>
+        <v>3.24</v>
       </c>
       <c r="D6">
-        <v>9.61</v>
+        <v>10.16</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>11.45</v>
+        <v>8.1</v>
       </c>
       <c r="C7">
-        <v>3.24</v>
+        <v>3.9</v>
       </c>
       <c r="D7">
-        <v>10.16</v>
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>10.91</v>
+      </c>
+      <c r="C8">
+        <v>5.2</v>
+      </c>
+      <c r="D8">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>11.02</v>
+      </c>
+      <c r="C9">
+        <v>6.8</v>
+      </c>
+      <c r="D9">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>11.04</v>
+      </c>
+      <c r="C10">
+        <v>10.3</v>
+      </c>
+      <c r="D10">
+        <v>12.2</v>
       </c>
     </row>
   </sheetData>
@@ -5343,11 +5912,190 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB8A79F4-1607-4AB9-B9C5-1A44146CDC76}">
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" zoomScale="91" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="33.1796875" customWidth="1"/>
+    <col min="2" max="2" width="25.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.1796875" customWidth="1"/>
+    <col min="6" max="6" width="24.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="C2">
+        <v>0.52</v>
+      </c>
+      <c r="D2">
+        <v>4.53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0.253</v>
+      </c>
+      <c r="C3">
+        <v>0.84</v>
+      </c>
+      <c r="D3">
+        <v>4.84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>0.498</v>
+      </c>
+      <c r="C4">
+        <v>0.71</v>
+      </c>
+      <c r="D4">
+        <v>4.72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.60099999999999998</v>
+      </c>
+      <c r="C5">
+        <v>0.71</v>
+      </c>
+      <c r="D5">
+        <v>4.72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>1.7270000000000001</v>
+      </c>
+      <c r="C6">
+        <v>1.53</v>
+      </c>
+      <c r="D6">
+        <v>5.53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>1.1220000000000001</v>
+      </c>
+      <c r="C7">
+        <v>1.8</v>
+      </c>
+      <c r="D7">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>0.95699999999999996</v>
+      </c>
+      <c r="C8">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D8">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="C9" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="D9" s="2">
+        <v>6.1</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="C10" s="2">
+        <v>5.7</v>
+      </c>
+      <c r="D10" s="2">
+        <v>6.6</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A8454C2-D505-4BE9-A00C-2F5F82517839}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView zoomScale="123" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView zoomScale="92" workbookViewId="0">
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5365,10 +6113,10 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>5</v>
@@ -5383,33 +6131,42 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>1.1639999999999999</v>
+      </c>
+      <c r="C2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D2">
+        <v>1.41</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>1.1639999999999999</v>
+        <f>1.853</f>
+        <v>1.853</v>
       </c>
       <c r="C3">
-        <v>0.14000000000000001</v>
+        <v>0.61</v>
       </c>
       <c r="D3">
-        <v>1.41</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B4">
-        <f>1.853</f>
-        <v>1.853</v>
+        <v>0.72799999999999998</v>
       </c>
       <c r="C4">
-        <v>0.61</v>
+        <v>1.17</v>
       </c>
       <c r="D4">
         <v>1.88</v>
@@ -5417,164 +6174,30 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>0.72799999999999998</v>
+        <v>0.79400000000000004</v>
       </c>
       <c r="C5">
         <v>1.17</v>
       </c>
       <c r="D5">
-        <v>1.88</v>
+        <v>2.0099999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B6">
-        <v>0.79400000000000004</v>
+        <v>1.57</v>
       </c>
       <c r="C6">
-        <v>1.17</v>
+        <v>2.39</v>
       </c>
       <c r="D6">
-        <v>2.0099999999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <v>1.57</v>
-      </c>
-      <c r="C7">
-        <v>2.39</v>
-      </c>
-      <c r="D7">
         <v>3.89</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB8A79F4-1607-4AB9-B9C5-1A44146CDC76}">
-  <dimension ref="A1:I7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="122" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="24.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.1796875" customWidth="1"/>
-    <col min="6" max="6" width="24.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.1796875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3">
-        <v>0.20399999999999999</v>
-      </c>
-      <c r="C3">
-        <v>0.52</v>
-      </c>
-      <c r="D3">
-        <v>4.53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>0.253</v>
-      </c>
-      <c r="C4">
-        <v>0.84</v>
-      </c>
-      <c r="D4">
-        <v>4.84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>0.498</v>
-      </c>
-      <c r="C5">
-        <v>0.71</v>
-      </c>
-      <c r="D5">
-        <v>4.72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6">
-        <v>0.60099999999999998</v>
-      </c>
-      <c r="C6">
-        <v>0.71</v>
-      </c>
-      <c r="D6">
-        <v>4.72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <v>1.7270000000000001</v>
-      </c>
-      <c r="C7">
-        <v>1.53</v>
-      </c>
-      <c r="D7">
-        <v>5.53</v>
       </c>
     </row>
   </sheetData>

--- a/assets/GPT-lite-DeepSpeed/benchmark.xlsx
+++ b/assets/GPT-lite-DeepSpeed/benchmark.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t-bmagalhaes\Desktop\brunomaga.github.io\assets\GPT-lite-DeepSpeed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25EB6CAC-B916-41D2-8296-4AD19FAC8C05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E206FF07-76A6-4DB6-B677-231F56267AB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-22185" windowWidth="16440" windowHeight="29040" tabRatio="669" xr2:uid="{5CE2D5A5-40E8-479C-B7CB-2387D3474101}"/>
+    <workbookView xWindow="-16320" yWindow="-22185" windowWidth="16440" windowHeight="29040" tabRatio="669" activeTab="1" xr2:uid="{5CE2D5A5-40E8-479C-B7CB-2387D3474101}"/>
   </bookViews>
   <sheets>
     <sheet name="GPTlite" sheetId="1" r:id="rId1"/>
@@ -875,6 +875,63 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>GPTlite!$B$1:$D$1</c:f>
@@ -2208,6 +2265,63 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'Benchmark Deep'!$B$1:$D$1</c:f>
@@ -2523,6 +2637,63 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'Benchmark Deep'!$B$1:$D$1</c:f>
@@ -5743,8 +5914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BBAB1DA-DD82-4512-8D36-0FA776F72118}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+    <sheetView zoomScale="91" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5915,8 +6086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB8A79F4-1607-4AB9-B9C5-1A44146CDC76}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="91" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="91" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6095,7 +6266,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView zoomScale="92" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/assets/GPT-lite-DeepSpeed/benchmark.xlsx
+++ b/assets/GPT-lite-DeepSpeed/benchmark.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
   <si>
     <t>Throughput (10K samples/sec)</t>
   </si>
@@ -50,9 +50,6 @@
   </si>
   <si>
     <t>DeepSpeed ZeRO-1 Pipeline (1 stage)</t>
-  </si>
-  <si>
-    <t>Throughput</t>
   </si>
   <si>
     <t>Throughput (samples/sec)</t>
@@ -116,7 +113,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -182,6 +179,16 @@
     <font>
       <sz val="12"/>
       <color indexed="15"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="17"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="20"/>
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
@@ -413,6 +420,10 @@
       <rgbColor rgb="ff878787"/>
       <rgbColor rgb="ff4f4f4f"/>
       <rgbColor rgb="fff9f9f9"/>
+      <rgbColor rgb="ff555555"/>
+      <rgbColor rgb="ff6c7371"/>
+      <rgbColor rgb="ff980605"/>
+      <rgbColor rgb="ff545454"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1739,9 +1750,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.303911"/>
+          <c:x val="0.305121"/>
           <c:y val="0"/>
-          <c:w val="0.159334"/>
+          <c:w val="0.158351"/>
           <c:h val="0.119832"/>
         </c:manualLayout>
       </c:layout>
@@ -1758,9 +1769,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.151114"/>
+          <c:x val="0.156352"/>
           <c:y val="0.119832"/>
-          <c:w val="0.60922"/>
+          <c:w val="0.605461"/>
           <c:h val="0.805686"/>
         </c:manualLayout>
       </c:layout>
@@ -1830,7 +1841,7 @@
                   <c:v>Avg Mem Allocated (GB)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Throughput</c:v>
+                  <c:v>Throughput (samples/sec)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1915,7 +1926,7 @@
                   <c:v>Avg Mem Allocated (GB)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Throughput</c:v>
+                  <c:v>Throughput (samples/sec)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2000,7 +2011,7 @@
                   <c:v>Avg Mem Allocated (GB)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Throughput</c:v>
+                  <c:v>Throughput (samples/sec)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2085,7 +2096,7 @@
                   <c:v>Avg Mem Allocated (GB)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Throughput</c:v>
+                  <c:v>Throughput (samples/sec)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2170,7 +2181,7 @@
                   <c:v>Avg Mem Allocated (GB)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Throughput</c:v>
+                  <c:v>Throughput (samples/sec)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2302,9 +2313,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.768035"/>
+          <c:x val="0.769466"/>
           <c:y val="0.232942"/>
-          <c:w val="0.231965"/>
+          <c:w val="0.230534"/>
           <c:h val="0.293589"/>
         </c:manualLayout>
       </c:layout>
@@ -2359,17 +2370,17 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" i="0" strike="noStrike" sz="1800" u="none">
+              <a:defRPr b="0" i="0" strike="noStrike" sz="1400" u="none">
                 <a:solidFill>
-                  <a:srgbClr val="000000"/>
+                  <a:srgbClr val="555555"/>
                 </a:solidFill>
                 <a:latin typeface="Helvetica Neue"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" i="0" strike="noStrike" sz="1800" u="none">
+              <a:rPr b="0" i="0" strike="noStrike" sz="1400" u="none">
                 <a:solidFill>
-                  <a:srgbClr val="000000"/>
+                  <a:srgbClr val="555555"/>
                 </a:solidFill>
                 <a:latin typeface="Helvetica Neue"/>
               </a:rPr>
@@ -2382,10 +2393,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.216343"/>
+          <c:x val="0.279378"/>
           <c:y val="0"/>
-          <c:w val="0.567314"/>
-          <c:h val="0.0986812"/>
+          <c:w val="0.441244"/>
+          <c:h val="0.0835362"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -2402,9 +2413,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.235194"/>
-          <c:y val="0.0986812"/>
+          <c:y val="0.0835362"/>
           <c:w val="0.756325"/>
-          <c:h val="0.828044"/>
+          <c:h val="0.842168"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -2701,17 +2712,17 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" i="0" strike="noStrike" sz="1800" u="none">
+              <a:defRPr b="0" i="0" strike="noStrike" sz="1400" u="none">
                 <a:solidFill>
-                  <a:srgbClr val="000000"/>
+                  <a:srgbClr val="555555"/>
                 </a:solidFill>
                 <a:latin typeface="Helvetica Neue"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" i="0" strike="noStrike" sz="1800" u="none">
+              <a:rPr b="0" i="0" strike="noStrike" sz="1400" u="none">
                 <a:solidFill>
-                  <a:srgbClr val="000000"/>
+                  <a:srgbClr val="555555"/>
                 </a:solidFill>
                 <a:latin typeface="Helvetica Neue"/>
               </a:rPr>
@@ -2724,10 +2735,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.123044"/>
+          <c:x val="0.190578"/>
           <c:y val="0"/>
-          <c:w val="0.716321"/>
-          <c:h val="0.0920024"/>
+          <c:w val="0.579728"/>
+          <c:h val="0.077794"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -2743,15 +2754,15 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.226353"/>
-          <c:y val="0.0920024"/>
-          <c:w val="0.727893"/>
-          <c:h val="0.771156"/>
+          <c:x val="0.23553"/>
+          <c:y val="0.077794"/>
+          <c:w val="0.716861"/>
+          <c:h val="0.783418"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
         <c:barDir val="bar"/>
-        <c:grouping val="clustered"/>
+        <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -2761,7 +2772,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:srgbClr val="6D7472"/>
             </a:solidFill>
             <a:ln w="9525" cap="flat">
               <a:solidFill>
@@ -2789,7 +2800,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="outEnd"/>
+            <c:dLblPos val="inEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2913,7 +2924,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:srgbClr val="980605"/>
             </a:solidFill>
             <a:ln w="9525" cap="flat">
               <a:solidFill>
@@ -2941,7 +2952,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="outEnd"/>
+            <c:dLblPos val="inEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -3009,56 +3020,56 @@
               <c:numCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>12.600000</c:v>
+                  <c:v>1.500000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.300000</c:v>
+                  <c:v>1.500000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.200000</c:v>
+                  <c:v>1.600000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.900000</c:v>
+                  <c:v>1.600000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.500000</c:v>
+                  <c:v>1.600000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.200000</c:v>
+                  <c:v>1.600000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.500000</c:v>
+                  <c:v>1.600000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.200000</c:v>
+                  <c:v>1.500000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.100000</c:v>
+                  <c:v>1.600000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.400000</c:v>
+                  <c:v>1.600000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.500000</c:v>
+                  <c:v>1.700000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.300000</c:v>
+                  <c:v>1.600000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.700000</c:v>
+                  <c:v>1.700000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.000000</c:v>
+                  <c:v>1.700000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.000000</c:v>
+                  <c:v>1.700000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="150"/>
-        <c:overlap val="0"/>
+        <c:overlap val="100"/>
         <c:axId val="2094734552"/>
         <c:axId val="2094734553"/>
       </c:barChart>
@@ -3170,10 +3181,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.562136"/>
-          <c:y val="0.951746"/>
-          <c:w val="0.437864"/>
-          <c:h val="0.0482543"/>
+          <c:x val="0.544383"/>
+          <c:y val="0.951186"/>
+          <c:w val="0.455617"/>
+          <c:h val="0.0488138"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -3294,7 +3305,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>575205</xdr:colOff>
+      <xdr:colOff>505150</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>126122</xdr:rowOff>
     </xdr:from>
@@ -3310,8 +3321,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="575205" y="2158122"/>
-        <a:ext cx="11283723" cy="3073475"/>
+        <a:off x="505150" y="2158122"/>
+        <a:ext cx="11353778" cy="3073475"/>
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3328,16 +3339,16 @@
 <xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>262073</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>260883</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>4978</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>232337</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>231146</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>73646</xdr:rowOff>
+      <xdr:rowOff>3847</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3345,8 +3356,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9634673" y="-69800"/>
-        <a:ext cx="10739865" cy="4524998"/>
+        <a:off x="11843283" y="4978"/>
+        <a:ext cx="10739864" cy="4450220"/>
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3358,25 +3369,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>262073</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>260883</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>62864</xdr:rowOff>
+      <xdr:rowOff>38531</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>651839</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>215822</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>128447</xdr:rowOff>
+      <xdr:rowOff>29337</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="2D Bar Chart"/>
+        <xdr:cNvPr id="9" name="2D Stacked Bar Chart"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9634673" y="4698365"/>
-        <a:ext cx="11159367" cy="4853483"/>
+        <a:off x="11843283" y="4674031"/>
+        <a:ext cx="10724540" cy="4778707"/>
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5566,7 +5577,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -5575,25 +5586,28 @@
     <col min="1" max="1" width="37.1719" style="8" customWidth="1"/>
     <col min="2" max="2" width="31.2422" style="8" customWidth="1"/>
     <col min="3" max="3" width="25.6719" style="8" customWidth="1"/>
-    <col min="4" max="4" width="29" style="8" customWidth="1"/>
-    <col min="5" max="16384" width="8.85156" style="8" customWidth="1"/>
+    <col min="4" max="5" width="29" style="8" customWidth="1"/>
+    <col min="6" max="16384" width="8.85156" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="16" customHeight="1">
       <c r="A1" s="9"/>
       <c r="B1" t="s" s="10">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s" s="10">
         <v>13</v>
       </c>
-      <c r="C1" t="s" s="10">
+      <c r="D1" t="s" s="10">
         <v>14</v>
       </c>
-      <c r="D1" t="s" s="10">
-        <v>15</v>
+      <c r="E1" t="s" s="10">
+        <v>14</v>
       </c>
     </row>
     <row r="2" ht="16" customHeight="1">
       <c r="A2" t="s" s="10">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="11">
         <v>8.5</v>
@@ -5601,13 +5615,17 @@
       <c r="C2" s="12">
         <v>11.1</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="12">
+        <f>E2-C2</f>
+        <v>1.5</v>
+      </c>
+      <c r="E2" s="13">
         <v>12.6</v>
       </c>
     </row>
     <row r="3" ht="16" customHeight="1">
       <c r="A3" t="s" s="10">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="14">
         <v>10.6</v>
@@ -5615,13 +5633,17 @@
       <c r="C3" s="15">
         <v>11.8</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="15">
+        <f>E3-C3</f>
+        <v>1.5</v>
+      </c>
+      <c r="E3" s="16">
         <v>13.3</v>
       </c>
     </row>
     <row r="4" ht="16" customHeight="1">
       <c r="A4" t="s" s="10">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="14">
         <v>10.3</v>
@@ -5629,13 +5651,17 @@
       <c r="C4" s="15">
         <v>5.6</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="15">
+        <f>E4-C4</f>
+        <v>1.6</v>
+      </c>
+      <c r="E4" s="16">
         <v>7.2</v>
       </c>
     </row>
     <row r="5" ht="16" customHeight="1">
       <c r="A5" t="s" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="14">
         <v>8</v>
@@ -5643,13 +5669,17 @@
       <c r="C5" s="15">
         <v>5.3</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="15">
+        <f>E5-C5</f>
+        <v>1.6</v>
+      </c>
+      <c r="E5" s="16">
         <v>6.9</v>
       </c>
     </row>
     <row r="6" ht="16" customHeight="1">
       <c r="A6" t="s" s="10">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" s="14">
         <v>10.8</v>
@@ -5657,13 +5687,17 @@
       <c r="C6" s="15">
         <v>3.9</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="15">
+        <f>E6-C6</f>
+        <v>1.6</v>
+      </c>
+      <c r="E6" s="16">
         <v>5.5</v>
       </c>
     </row>
     <row r="7" ht="16" customHeight="1">
       <c r="A7" t="s" s="10">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="14">
         <v>11</v>
@@ -5671,13 +5705,17 @@
       <c r="C7" s="15">
         <v>3.6</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="15">
+        <f>E7-C7</f>
+        <v>1.6</v>
+      </c>
+      <c r="E7" s="16">
         <v>5.2</v>
       </c>
     </row>
     <row r="8" ht="16" customHeight="1">
       <c r="A8" t="s" s="10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="14">
         <v>8</v>
@@ -5685,13 +5723,17 @@
       <c r="C8" s="15">
         <v>4.9</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="15">
+        <f>E8-C8</f>
+        <v>1.6</v>
+      </c>
+      <c r="E8" s="16">
         <v>6.5</v>
       </c>
     </row>
     <row r="9" ht="16" customHeight="1">
       <c r="A9" t="s" s="10">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" s="14">
         <v>11.3</v>
@@ -5699,13 +5741,17 @@
       <c r="C9" s="15">
         <v>3.7</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="15">
+        <f>E9-C9</f>
+        <v>1.5</v>
+      </c>
+      <c r="E9" s="16">
         <v>5.2</v>
       </c>
     </row>
     <row r="10" ht="16" customHeight="1">
       <c r="A10" t="s" s="10">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" s="14">
         <v>11.1</v>
@@ -5713,13 +5759,17 @@
       <c r="C10" s="15">
         <v>3.5</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="15">
+        <f>E10-C10</f>
+        <v>1.6</v>
+      </c>
+      <c r="E10" s="16">
         <v>5.1</v>
       </c>
     </row>
     <row r="11" ht="16" customHeight="1">
       <c r="A11" t="s" s="10">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" s="14">
         <v>7.2</v>
@@ -5727,13 +5777,17 @@
       <c r="C11" s="15">
         <v>4.8</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="15">
+        <f>E11-C11</f>
+        <v>1.6</v>
+      </c>
+      <c r="E11" s="16">
         <v>6.4</v>
       </c>
     </row>
     <row r="12" ht="16" customHeight="1">
       <c r="A12" t="s" s="10">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12" s="14">
         <v>7.3</v>
@@ -5741,13 +5795,17 @@
       <c r="C12" s="15">
         <v>2.8</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="15">
+        <f>E12-C12</f>
+        <v>1.7</v>
+      </c>
+      <c r="E12" s="16">
         <v>4.5</v>
       </c>
     </row>
     <row r="13" ht="16" customHeight="1">
       <c r="A13" t="s" s="10">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13" s="14">
         <v>7.3</v>
@@ -5755,13 +5813,17 @@
       <c r="C13" s="15">
         <v>2.7</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13" s="15">
+        <f>E13-C13</f>
+        <v>1.6</v>
+      </c>
+      <c r="E13" s="16">
         <v>4.3</v>
       </c>
     </row>
     <row r="14" ht="16" customHeight="1">
       <c r="A14" t="s" s="10">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B14" s="14">
         <v>2.9</v>
@@ -5769,13 +5831,17 @@
       <c r="C14" s="15">
         <v>4</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14" s="15">
+        <f>E14-C14</f>
+        <v>1.7</v>
+      </c>
+      <c r="E14" s="16">
         <v>5.7</v>
       </c>
     </row>
     <row r="15" ht="16" customHeight="1">
       <c r="A15" t="s" s="10">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B15" s="14">
         <v>2.8</v>
@@ -5783,13 +5849,17 @@
       <c r="C15" s="15">
         <v>2.3</v>
       </c>
-      <c r="D15" s="16">
+      <c r="D15" s="15">
+        <f>E15-C15</f>
+        <v>1.7</v>
+      </c>
+      <c r="E15" s="16">
         <v>4</v>
       </c>
     </row>
     <row r="16" ht="16" customHeight="1">
       <c r="A16" t="s" s="10">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B16" s="14">
         <v>3.1</v>
@@ -5797,7 +5867,11 @@
       <c r="C16" s="15">
         <v>2.3</v>
       </c>
-      <c r="D16" s="16">
+      <c r="D16" s="15">
+        <f>E16-C16</f>
+        <v>1.7</v>
+      </c>
+      <c r="E16" s="16">
         <v>4</v>
       </c>
     </row>
@@ -5805,31 +5879,36 @@
       <c r="A17" s="17"/>
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
-      <c r="D17" s="19"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="19"/>
     </row>
     <row r="18" ht="16" customHeight="1">
       <c r="A18" s="20"/>
       <c r="B18" s="18"/>
       <c r="C18" s="18"/>
-      <c r="D18" s="19"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="19"/>
     </row>
     <row r="19" ht="16" customHeight="1">
       <c r="A19" s="20"/>
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
-      <c r="D19" s="19"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="19"/>
     </row>
     <row r="20" ht="16" customHeight="1">
       <c r="A20" s="20"/>
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
-      <c r="D20" s="19"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="19"/>
     </row>
     <row r="21" ht="16" customHeight="1">
       <c r="A21" s="21"/>
       <c r="B21" s="22"/>
       <c r="C21" s="22"/>
-      <c r="D21" s="23"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
